--- a/SoftMax_CLR_data.xlsx
+++ b/SoftMax_CLR_data.xlsx
@@ -8,36 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465026C-8C54-47B2-8766-EAB9CC9982A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CCE0F-64F6-48A2-9A47-29097DDB4F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="2400" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="轻度采样点" sheetId="2" r:id="rId2"/>
-    <sheet name="正常采样点" sheetId="4" r:id="rId3"/>
-    <sheet name="重度采样点" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$68</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>文物采样点</t>
   </si>
@@ -525,11 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1034,7 @@
         <v>-4.5582047685834542E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1645,7 @@
         <v>-7.1428571428571466E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1739,7 @@
         <v>-7.1428571428571577E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1833,7 @@
         <v>-5.179322781005806E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1944,7 +1927,7 @@
         <v>-7.1428571428571577E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1991,7 +1974,7 @@
         <v>-7.1428571428571813E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2649,7 +2632,7 @@
         <v>-7.1428571428570745E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2696,7 +2679,7 @@
         <v>-7.1428571428571105E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2837,7 +2820,7 @@
         <v>-7.1428571428571577E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3119,7 +3102,7 @@
         <v>-7.1428571428571216E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -3213,7 +3196,7 @@
         <v>-7.1428571428571105E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3401,7 +3384,7 @@
         <v>-7.1428571428571341E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3495,7 +3478,7 @@
         <v>-7.1428571428571466E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -3731,77 +3714,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O68" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="03部位1"/>
-        <filter val="03部位2"/>
-        <filter val="06部位1"/>
-        <filter val="06部位2"/>
-        <filter val="1"/>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="14"/>
-        <filter val="16"/>
-        <filter val="18"/>
-        <filter val="19"/>
-        <filter val="2"/>
-        <filter val="20"/>
-        <filter val="21"/>
-        <filter val="22"/>
-        <filter val="24"/>
-        <filter val="26"/>
-        <filter val="27"/>
-        <filter val="30部位1"/>
-        <filter val="30部位2"/>
-        <filter val="31"/>
-        <filter val="32"/>
-        <filter val="33"/>
-        <filter val="34"/>
-        <filter val="35"/>
-        <filter val="36"/>
-        <filter val="37"/>
-        <filter val="38"/>
-        <filter val="39"/>
-        <filter val="4"/>
-        <filter val="40"/>
-        <filter val="41"/>
-        <filter val="43部位1"/>
-        <filter val="43部位2"/>
-        <filter val="45"/>
-        <filter val="46"/>
-        <filter val="47"/>
-        <filter val="48"/>
-        <filter val="49"/>
-        <filter val="5"/>
-        <filter val="50"/>
-        <filter val="51部位1"/>
-        <filter val="51部位2"/>
-        <filter val="52"/>
-        <filter val="54"/>
-        <filter val="55"/>
-        <filter val="56"/>
-        <filter val="57"/>
-        <filter val="58"/>
-        <filter val="7"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A19E7BA-D1B0-4EEE-B887-BB2C48A8C050}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8F7C4-FBB7-45FD-B9F3-815DE78EB3DC}">
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3854,3279 +3778,2951 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
       <c r="B2">
-        <v>0.48598075499629889</v>
+        <v>0.2345796178604648</v>
       </c>
       <c r="C2">
-        <v>1.0643967431532141E-2</v>
+        <v>-7.1122378927144431E-2</v>
       </c>
       <c r="D2">
-        <v>-7.1428571428571466E-2</v>
+        <v>-7.1438880725787537E-2</v>
       </c>
       <c r="E2">
-        <v>-6.624722427831238E-2</v>
+        <v>-5.1955052390129618E-2</v>
       </c>
       <c r="F2">
-        <v>-6.4071058475203557E-2</v>
+        <v>-7.2142594973483937E-2</v>
       </c>
       <c r="G2">
-        <v>-5.6713545521835697E-2</v>
+        <v>-5.0413421911258673E-2</v>
       </c>
       <c r="H2">
-        <v>-7.1428571428571466E-2</v>
+        <v>-7.3315963287308134E-2</v>
       </c>
       <c r="I2">
-        <v>-4.0444115470022253E-2</v>
+        <v>-4.367135249360133E-2</v>
       </c>
       <c r="J2">
-        <v>0.1045299777942265</v>
+        <v>0.14091322289244271</v>
       </c>
       <c r="K2">
-        <v>5.147298297557365E-2</v>
+        <v>0.20299135149743811</v>
       </c>
       <c r="L2">
-        <v>-7.1428571428571466E-2</v>
+        <v>-4.8268361828914669E-2</v>
       </c>
       <c r="M2">
-        <v>-6.8008882309400484E-2</v>
+        <v>-6.6416042147024762E-2</v>
       </c>
       <c r="N2">
-        <v>-7.1428571428571466E-2</v>
+        <v>-7.1150771646660171E-2</v>
       </c>
       <c r="O2">
-        <v>-7.1428571428571466E-2</v>
+        <v>-2.9743259090414219E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
       <c r="B3">
-        <v>0.45000147184363082</v>
+        <v>0.22675747959220471</v>
       </c>
       <c r="C3">
-        <v>-4.7628859909923722E-2</v>
+        <v>-7.1122378927144236E-2</v>
       </c>
       <c r="D3">
+        <v>-6.3980801882731309E-2</v>
+      </c>
+      <c r="E3">
+        <v>-5.3943605769168138E-2</v>
+      </c>
+      <c r="F3">
+        <v>-7.2142594973483742E-2</v>
+      </c>
+      <c r="G3">
+        <v>-5.0194249791166767E-2</v>
+      </c>
+      <c r="H3">
+        <v>-7.3315963287307662E-2</v>
+      </c>
+      <c r="I3">
+        <v>-3.9580459703242372E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.1234910577078499</v>
+      </c>
+      <c r="K3">
+        <v>0.2380977036640276</v>
+      </c>
+      <c r="L3">
+        <v>-5.483283815175502E-2</v>
+      </c>
+      <c r="M3">
+        <v>-6.541936907166368E-2</v>
+      </c>
+      <c r="N3">
+        <v>-7.1150771646660019E-2</v>
+      </c>
+      <c r="O3">
+        <v>-2.7927294891248001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.33926170080307888</v>
+      </c>
+      <c r="C4">
+        <v>-7.1122378927144334E-2</v>
+      </c>
+      <c r="D4">
+        <v>-7.1438880725787343E-2</v>
+      </c>
+      <c r="E4">
+        <v>-7.9569077262227283E-2</v>
+      </c>
+      <c r="F4">
+        <v>-6.3120117787418092E-2</v>
+      </c>
+      <c r="G4">
+        <v>-3.9175871697840182E-2</v>
+      </c>
+      <c r="H4">
+        <v>-7.3315963287307911E-2</v>
+      </c>
+      <c r="I4">
+        <v>-6.1869400863595027E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.29534027870531648</v>
+      </c>
+      <c r="K4">
+        <v>-5.0271461648039292E-2</v>
+      </c>
+      <c r="L4">
+        <v>-2.0862059974435111E-2</v>
+      </c>
+      <c r="M4">
+        <v>-5.8852730282719978E-2</v>
+      </c>
+      <c r="N4">
+        <v>-7.1150771646660102E-2</v>
+      </c>
+      <c r="O4">
+        <v>-7.1315961335358266E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.64687704159564041</v>
+      </c>
+      <c r="C5">
+        <v>-7.0005678351328648E-3</v>
+      </c>
+      <c r="D5">
+        <v>-7.1438880725787343E-2</v>
+      </c>
+      <c r="E5">
+        <v>-7.5162817734501577E-2</v>
+      </c>
+      <c r="F5">
+        <v>-6.6346343028376428E-2</v>
+      </c>
+      <c r="G5">
+        <v>-4.8957132663659753E-2</v>
+      </c>
+      <c r="H5">
+        <v>-7.3315963287307911E-2</v>
+      </c>
+      <c r="I5">
+        <v>-4.465274540708479E-2</v>
+      </c>
+      <c r="J5">
+        <v>5.3556327693769168E-2</v>
+      </c>
+      <c r="K5">
+        <v>4.9593230985399139E-2</v>
+      </c>
+      <c r="L5">
+        <v>-7.8906939380523608E-2</v>
+      </c>
+      <c r="M5">
+        <v>-6.8840906997486365E-2</v>
+      </c>
+      <c r="N5">
+        <v>-7.1150771646660102E-2</v>
+      </c>
+      <c r="O5">
+        <v>-7.1315961335358266E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.6178179872546955</v>
+      </c>
+      <c r="C6">
+        <v>-5.2528088714624242E-2</v>
+      </c>
+      <c r="D6">
+        <v>-7.1438880725788217E-2</v>
+      </c>
+      <c r="E6">
+        <v>-7.4049222574651283E-2</v>
+      </c>
+      <c r="F6">
+        <v>-7.2142594973484214E-2</v>
+      </c>
+      <c r="G6">
+        <v>-4.6885135642316819E-2</v>
+      </c>
+      <c r="H6">
+        <v>-4.1279142629374849E-2</v>
+      </c>
+      <c r="I6">
+        <v>-6.4163716391659589E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.13997893600365019</v>
+      </c>
+      <c r="K6">
+        <v>5.4004266748882146E-3</v>
+      </c>
+      <c r="L6">
+        <v>-7.8127560791341283E-2</v>
+      </c>
+      <c r="M6">
+        <v>-7.0509370860979803E-2</v>
+      </c>
+      <c r="N6">
+        <v>-7.1150771646660421E-2</v>
+      </c>
+      <c r="O6">
+        <v>-7.1315961335358391E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.75383356328221462</v>
+      </c>
+      <c r="C7">
+        <v>-7.1122378927144611E-2</v>
+      </c>
+      <c r="D7">
+        <v>-6.6532184280744575E-2</v>
+      </c>
+      <c r="E7">
+        <v>-6.8022346701274897E-2</v>
+      </c>
+      <c r="F7">
+        <v>-6.4160018821629153E-2</v>
+      </c>
+      <c r="G7">
+        <v>-3.4928306143481323E-2</v>
+      </c>
+      <c r="H7">
+        <v>-6.4981671396741034E-2</v>
+      </c>
+      <c r="I7">
+        <v>-7.2386885929392006E-2</v>
+      </c>
+      <c r="J7">
+        <v>5.2264039157604823E-2</v>
+      </c>
+      <c r="K7">
+        <v>-1.7008354856257589E-2</v>
+      </c>
+      <c r="L7">
+        <v>-7.4711327107073844E-2</v>
+      </c>
+      <c r="M7">
+        <v>-7.1546280363841766E-2</v>
+      </c>
+      <c r="N7">
+        <v>-6.9596388202080167E-2</v>
+      </c>
+      <c r="O7">
+        <v>-7.1315961335358363E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.70854289689031635</v>
+      </c>
+      <c r="C8">
+        <v>-6.3925947263758359E-2</v>
+      </c>
+      <c r="D8">
+        <v>-6.5844761565548471E-2</v>
+      </c>
+      <c r="E8">
+        <v>-5.4196469084652733E-2</v>
+      </c>
+      <c r="F8">
+        <v>-6.0390265615899018E-2</v>
+      </c>
+      <c r="G8">
+        <v>5.9738762442844836E-3</v>
+      </c>
+      <c r="H8">
+        <v>-5.7046827494822407E-2</v>
+      </c>
+      <c r="I8">
+        <v>-6.830804983340312E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.3724836557343781E-2</v>
+      </c>
+      <c r="K8">
+        <v>-3.3756708055509593E-2</v>
+      </c>
+      <c r="L8">
+        <v>-7.7272606644130493E-2</v>
+      </c>
+      <c r="M8">
+        <v>-6.9966245540101807E-2</v>
+      </c>
+      <c r="N8">
+        <v>-7.1150771646660102E-2</v>
+      </c>
+      <c r="O8">
+        <v>-7.1315961335358266E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.61909232492054089</v>
+      </c>
+      <c r="C9">
+        <v>-2.53662352255942E-2</v>
+      </c>
+      <c r="D9">
+        <v>-6.8588454127864643E-2</v>
+      </c>
+      <c r="E9">
+        <v>-7.2714446202209335E-2</v>
+      </c>
+      <c r="F9">
+        <v>-6.3381218786717403E-2</v>
+      </c>
+      <c r="G9">
+        <v>-3.9876354027320163E-2</v>
+      </c>
+      <c r="H9">
+        <v>-7.331596328730719E-2</v>
+      </c>
+      <c r="I9">
+        <v>-4.8407740844553598E-2</v>
+      </c>
+      <c r="J9">
+        <v>8.0316602809787974E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.6530769123451622E-2</v>
+      </c>
+      <c r="L9">
+        <v>-7.8581960787077951E-2</v>
+      </c>
+      <c r="M9">
+        <v>-6.8655076432535087E-2</v>
+      </c>
+      <c r="N9">
+        <v>-7.1150771646659866E-2</v>
+      </c>
+      <c r="O9">
+        <v>-7.1315961335358169E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.62014443597001667</v>
+      </c>
+      <c r="C10">
+        <v>-2.5793648445935961E-2</v>
+      </c>
+      <c r="D10">
+        <v>-6.4780412302101922E-2</v>
+      </c>
+      <c r="E10">
+        <v>-7.9569077262227061E-2</v>
+      </c>
+      <c r="F10">
+        <v>-6.2808085158419083E-2</v>
+      </c>
+      <c r="G10">
+        <v>-3.0584280495839829E-2</v>
+      </c>
+      <c r="H10">
+        <v>-7.3315963287307412E-2</v>
+      </c>
+      <c r="I10">
+        <v>-4.7864575549465188E-2</v>
+      </c>
+      <c r="J10">
+        <v>7.0284214835427433E-2</v>
+      </c>
+      <c r="K10">
+        <v>4.0031251215604823E-2</v>
+      </c>
+      <c r="L10">
+        <v>-7.8906939380523511E-2</v>
+      </c>
+      <c r="M10">
+        <v>-7.3038974826902414E-2</v>
+      </c>
+      <c r="N10">
+        <v>-7.1150771646659935E-2</v>
+      </c>
+      <c r="O10">
+        <v>-7.1315961335358197E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.69160791666966515</v>
+      </c>
+      <c r="C11">
+        <v>-4.7002893111868879E-2</v>
+      </c>
+      <c r="D11">
+        <v>-6.7680872777680146E-2</v>
+      </c>
+      <c r="E11">
+        <v>-6.1208773487598053E-2</v>
+      </c>
+      <c r="F11">
+        <v>-7.2142594973483937E-2</v>
+      </c>
+      <c r="G11">
+        <v>-6.5313385046414374E-4</v>
+      </c>
+      <c r="H11">
+        <v>-5.7731658592734512E-2</v>
+      </c>
+      <c r="I11">
+        <v>-7.1389150567406967E-2</v>
+      </c>
+      <c r="J11">
+        <v>3.1682301544100323E-2</v>
+      </c>
+      <c r="K11">
+        <v>-7.4793415644558584E-3</v>
+      </c>
+      <c r="L11">
+        <v>-7.890693938052365E-2</v>
+      </c>
+      <c r="M11">
+        <v>-6.9818833894575452E-2</v>
+      </c>
+      <c r="N11">
+        <v>-7.1150771646660171E-2</v>
+      </c>
+      <c r="O11">
+        <v>-7.1315961335358294E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.64564473227874641</v>
+      </c>
+      <c r="C12">
+        <v>-7.1122378927144431E-2</v>
+      </c>
+      <c r="D12">
+        <v>-6.575137439715685E-2</v>
+      </c>
+      <c r="E12">
+        <v>-6.1563694273524053E-2</v>
+      </c>
+      <c r="F12">
+        <v>-6.2519625424299341E-2</v>
+      </c>
+      <c r="G12">
+        <v>-2.702455988531419E-2</v>
+      </c>
+      <c r="H12">
+        <v>-4.7381732814305383E-2</v>
+      </c>
+      <c r="I12">
+        <v>-7.1145887613594236E-2</v>
+      </c>
+      <c r="J12">
+        <v>8.6588200367262419E-2</v>
+      </c>
+      <c r="K12">
+        <v>-1.561531576039879E-2</v>
+      </c>
+      <c r="L12">
+        <v>-6.1399180779604143E-2</v>
+      </c>
+      <c r="M12">
+        <v>-6.9290145008103807E-2</v>
+      </c>
+      <c r="N12">
+        <v>-7.1150771646660171E-2</v>
+      </c>
+      <c r="O12">
+        <v>-7.1315961335358294E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.57176592525748848</v>
+      </c>
+      <c r="C13">
+        <v>-7.1122378927144139E-2</v>
+      </c>
+      <c r="D13">
+        <v>-7.1438880725786871E-2</v>
+      </c>
+      <c r="E13">
+        <v>-5.2198814860583899E-2</v>
+      </c>
+      <c r="F13">
+        <v>-6.775418732101475E-2</v>
+      </c>
+      <c r="G13">
+        <v>-3.6936459831810708E-2</v>
+      </c>
+      <c r="H13">
+        <v>-7.3315963287307412E-2</v>
+      </c>
+      <c r="I13">
+        <v>-6.8496614711901826E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.13267800473270069</v>
+      </c>
+      <c r="K13">
+        <v>1.8650491918995381E-3</v>
+      </c>
+      <c r="L13">
+        <v>-5.2868113389908891E-2</v>
+      </c>
+      <c r="M13">
+        <v>-7.0126329220626366E-2</v>
+      </c>
+      <c r="N13">
+        <v>-7.1150771646659935E-2</v>
+      </c>
+      <c r="O13">
+        <v>-7.1315961335358197E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.71999424897026953</v>
+      </c>
+      <c r="C14">
+        <v>-4.6948355612634302E-2</v>
+      </c>
+      <c r="D14">
+        <v>-6.935367399500747E-2</v>
+      </c>
+      <c r="E14">
+        <v>-7.2817745869821551E-2</v>
+      </c>
+      <c r="F14">
+        <v>-6.3001704367007333E-2</v>
+      </c>
+      <c r="G14">
+        <v>-2.8936531202323399E-2</v>
+      </c>
+      <c r="H14">
+        <v>-7.331596328730694E-2</v>
+      </c>
+      <c r="I14">
+        <v>-7.0227226606153853E-2</v>
+      </c>
+      <c r="J14">
+        <v>3.265842936120697E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.4078667401002139E-2</v>
+      </c>
+      <c r="L14">
+        <v>-7.8906939380523414E-2</v>
+      </c>
+      <c r="M14">
+        <v>-6.9665371394241449E-2</v>
+      </c>
+      <c r="N14">
+        <v>-7.1150771646659783E-2</v>
+      </c>
+      <c r="O14">
+        <v>-7.1315961335358141E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.49002140581607451</v>
+      </c>
+      <c r="C15">
+        <v>-7.1122378927144236E-2</v>
+      </c>
+      <c r="D15">
+        <v>-5.1861423762765077E-2</v>
+      </c>
+      <c r="E15">
+        <v>-5.9647614373935273E-2</v>
+      </c>
+      <c r="F15">
+        <v>-6.2836312866132144E-2</v>
+      </c>
+      <c r="G15">
+        <v>-3.0776537404571251E-2</v>
+      </c>
+      <c r="H15">
+        <v>-3.5960947012696712E-2</v>
+      </c>
+      <c r="I15">
+        <v>-7.3130332678118123E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.2226976904412041</v>
+      </c>
+      <c r="K15">
+        <v>-5.0271461648039202E-2</v>
+      </c>
+      <c r="L15">
+        <v>-6.4677710674115652E-2</v>
+      </c>
+      <c r="M15">
+        <v>-7.0703934353522568E-2</v>
+      </c>
+      <c r="N15">
+        <v>-7.1150771646660019E-2</v>
+      </c>
+      <c r="O15">
+        <v>-7.1315961335358238E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.54340305490656704</v>
+      </c>
+      <c r="C16">
+        <v>-6.0986406657899457E-2</v>
+      </c>
+      <c r="D16">
+        <v>-2.746945696600216E-2</v>
+      </c>
+      <c r="E16">
+        <v>-3.425719352572834E-3</v>
+      </c>
+      <c r="F16">
+        <v>-6.5067825150382702E-2</v>
+      </c>
+      <c r="G16">
+        <v>-2.7304835163718031E-3</v>
+      </c>
+      <c r="H16">
+        <v>-7.6206856318488753E-2</v>
+      </c>
+      <c r="I16">
+        <v>-1.463721442499554E-2</v>
+      </c>
+      <c r="J16">
+        <v>-6.5718288693380159E-2</v>
+      </c>
+      <c r="K16">
+        <v>-6.2789019109232694E-2</v>
+      </c>
+      <c r="L16">
+        <v>-3.3347476692057711E-2</v>
+      </c>
+      <c r="M16">
+        <v>-7.0877330793486085E-2</v>
+      </c>
+      <c r="N16">
+        <v>-6.7586447454708987E-2</v>
+      </c>
+      <c r="O16">
+        <v>-6.9879212628690388E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.35963560785281512</v>
+      </c>
+      <c r="C17">
+        <v>-7.1122378927144334E-2</v>
+      </c>
+      <c r="D17">
+        <v>-7.1438880725787343E-2</v>
+      </c>
+      <c r="E17">
+        <v>-6.6960341823441932E-2</v>
+      </c>
+      <c r="F17">
+        <v>-7.214259497348384E-2</v>
+      </c>
+      <c r="G17">
+        <v>-4.9507418881263712E-2</v>
+      </c>
+      <c r="H17">
+        <v>-7.3315963287307911E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.8898448601270471E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.116579523684109</v>
+      </c>
+      <c r="K17">
+        <v>0.20394812759736641</v>
+      </c>
+      <c r="L17">
+        <v>-6.4587960784360715E-2</v>
+      </c>
+      <c r="M17">
+        <v>-6.8488601978523883E-2</v>
+      </c>
+      <c r="N17">
+        <v>-7.1150771646660102E-2</v>
+      </c>
+      <c r="O17">
+        <v>-6.4292684804974354E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.67035719116063497</v>
+      </c>
+      <c r="C18">
+        <v>-6.8614511596403777E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.8119276149370119E-2</v>
+      </c>
+      <c r="E18">
+        <v>-3.4148718722636903E-2</v>
+      </c>
+      <c r="F18">
+        <v>-6.5067825150383007E-2</v>
+      </c>
+      <c r="G18">
+        <v>-2.0815812534243468E-2</v>
+      </c>
+      <c r="H18">
+        <v>-3.7675925926078199E-2</v>
+      </c>
+      <c r="I18">
+        <v>-4.6706157277058839E-2</v>
+      </c>
+      <c r="J18">
+        <v>-6.9200002352932236E-2</v>
+      </c>
+      <c r="K18">
+        <v>-6.8599687598941528E-2</v>
+      </c>
+      <c r="L18">
+        <v>-5.2157626988323998E-2</v>
+      </c>
+      <c r="M18">
+        <v>-7.1164114547087681E-2</v>
+      </c>
+      <c r="N18">
+        <v>-7.168109786119492E-2</v>
+      </c>
+      <c r="O18">
+        <v>-7.1000311495722002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.76379788668077842</v>
+      </c>
+      <c r="C19">
+        <v>-7.5395049319518723E-2</v>
+      </c>
+      <c r="D19">
+        <v>5.9176541119971983E-2</v>
+      </c>
+      <c r="E19">
+        <v>-6.2099867568625108E-2</v>
+      </c>
+      <c r="F19">
+        <v>-6.5067825150383271E-2</v>
+      </c>
+      <c r="G19">
+        <v>-3.4770341965939047E-2</v>
+      </c>
+      <c r="H19">
+        <v>-5.3127358737913723E-2</v>
+      </c>
+      <c r="I19">
+        <v>-6.0167177184766163E-2</v>
+      </c>
+      <c r="J19">
+        <v>-7.2294858939200735E-2</v>
+      </c>
+      <c r="K19">
+        <v>-7.3764726256460494E-2</v>
+      </c>
+      <c r="L19">
+        <v>-7.7437341161343362E-2</v>
+      </c>
+      <c r="M19">
+        <v>-7.1419033439177992E-2</v>
+      </c>
+      <c r="N19">
+        <v>-7.532078711140465E-2</v>
+      </c>
+      <c r="O19">
+        <v>-7.1996843821972328E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.48108369305536658</v>
+      </c>
+      <c r="C20">
+        <v>-7.1122378927144139E-2</v>
+      </c>
+      <c r="D20">
+        <v>-6.7338676981083367E-2</v>
+      </c>
+      <c r="E20">
+        <v>-4.8277197695530197E-2</v>
+      </c>
+      <c r="F20">
+        <v>-6.6278895291096984E-2</v>
+      </c>
+      <c r="G20">
+        <v>-4.3208567321349152E-2</v>
+      </c>
+      <c r="H20">
+        <v>-7.3315963287307412E-2</v>
+      </c>
+      <c r="I20">
+        <v>-2.3884628277399341E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.1046115825903116</v>
+      </c>
+      <c r="K20">
+        <v>7.4180561509615328E-2</v>
+      </c>
+      <c r="L20">
+        <v>-3.9756634679958061E-2</v>
+      </c>
+      <c r="M20">
+        <v>-6.8277278446514711E-2</v>
+      </c>
+      <c r="N20">
+        <v>-7.1150771646659935E-2</v>
+      </c>
+      <c r="O20">
+        <v>-7.1315961335358197E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.64083754237466106</v>
+      </c>
+      <c r="C21">
+        <v>-3.8949659057775872E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.7882059332898148E-2</v>
+      </c>
+      <c r="E21">
+        <v>-2.7234190835125269E-2</v>
+      </c>
+      <c r="F21">
+        <v>-6.5067825150381856E-2</v>
+      </c>
+      <c r="G21">
+        <v>-1.6907403551864451E-2</v>
+      </c>
+      <c r="H21">
+        <v>-4.5238500027992068E-2</v>
+      </c>
+      <c r="I21">
+        <v>-4.4748331767747687E-2</v>
+      </c>
+      <c r="J21">
+        <v>-5.5660004788007512E-2</v>
+      </c>
+      <c r="K21">
+        <v>-4.6002643472296052E-2</v>
+      </c>
+      <c r="L21">
+        <v>-6.6581416041718064E-2</v>
+      </c>
+      <c r="M21">
+        <v>-7.0048844394192594E-2</v>
+      </c>
+      <c r="N21">
+        <v>-5.5757457391527362E-2</v>
+      </c>
+      <c r="O21">
+        <v>-6.6640482568376819E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.439075771530823</v>
+      </c>
+      <c r="C22">
+        <v>-7.1122378927144611E-2</v>
+      </c>
+      <c r="D22">
+        <v>-7.1438880725787982E-2</v>
+      </c>
+      <c r="E22">
+        <v>-5.4339270656986502E-2</v>
+      </c>
+      <c r="F22">
+        <v>-6.7436213241490489E-2</v>
+      </c>
+      <c r="G22">
+        <v>-3.9820294233446372E-2</v>
+      </c>
+      <c r="H22">
+        <v>-4.6299496052509513E-2</v>
+      </c>
+      <c r="I22">
+        <v>-4.0081086122850697E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.1993546205901835</v>
+      </c>
+      <c r="K22">
+        <v>-6.253766862267196E-3</v>
+      </c>
+      <c r="L22">
+        <v>-4.330982621958103E-2</v>
+      </c>
+      <c r="M22">
+        <v>-7.0677217102258341E-2</v>
+      </c>
+      <c r="N22">
+        <v>-7.1150771646660338E-2</v>
+      </c>
+      <c r="O22">
+        <v>-7.1315961335358363E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.51296410715631979</v>
+      </c>
+      <c r="C23">
+        <v>-6.8614511596403777E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.2091645545206627E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.6476972648438473E-2</v>
+      </c>
+      <c r="F23">
+        <v>-4.997122433276785E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.8574895268360443E-2</v>
+      </c>
+      <c r="H23">
+        <v>-3.017055032618271E-2</v>
+      </c>
+      <c r="I23">
+        <v>-6.5680327193438789E-2</v>
+      </c>
+      <c r="J23">
+        <v>-6.9200002352932236E-2</v>
+      </c>
+      <c r="K23">
+        <v>-6.8599687598941528E-2</v>
+      </c>
+      <c r="L23">
+        <v>-6.2304398663088303E-2</v>
+      </c>
+      <c r="M23">
+        <v>-7.1164114547087681E-2</v>
+      </c>
+      <c r="N23">
+        <v>-7.168109786119492E-2</v>
+      </c>
+      <c r="O23">
+        <v>-7.1000311495722002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.356803697835953</v>
+      </c>
+      <c r="C24">
+        <v>-7.1122378927144236E-2</v>
+      </c>
+      <c r="D24">
+        <v>-7.1438880725787107E-2</v>
+      </c>
+      <c r="E24">
+        <v>-6.7301118456922548E-2</v>
+      </c>
+      <c r="F24">
+        <v>-7.2142594973483742E-2</v>
+      </c>
+      <c r="G24">
+        <v>-5.2240616848131853E-2</v>
+      </c>
+      <c r="H24">
+        <v>-7.3315963287307662E-2</v>
+      </c>
+      <c r="I24">
+        <v>3.0506755199355671E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.12139875682013</v>
+      </c>
+      <c r="K24">
+        <v>0.21225116893679391</v>
+      </c>
+      <c r="L24">
+        <v>-6.6422704559913545E-2</v>
+      </c>
+      <c r="M24">
+        <v>-6.7504737578874388E-2</v>
+      </c>
+      <c r="N24">
+        <v>-7.1150771646660019E-2</v>
+      </c>
+      <c r="O24">
+        <v>-6.5980448932430935E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.59395592820085452</v>
+      </c>
+      <c r="C25">
+        <v>-7.5395049319518723E-2</v>
+      </c>
+      <c r="D25">
+        <v>-2.746945696600437E-2</v>
+      </c>
+      <c r="E25">
+        <v>-1.17151858117972E-2</v>
+      </c>
+      <c r="F25">
+        <v>-5.2176663385518768E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.2390870727372241E-2</v>
+      </c>
+      <c r="H25">
+        <v>-6.8025684542021125E-2</v>
+      </c>
+      <c r="I25">
+        <v>-4.6612125478271288E-2</v>
+      </c>
+      <c r="J25">
+        <v>-7.2294858939200735E-2</v>
+      </c>
+      <c r="K25">
+        <v>-7.3764726256460494E-2</v>
+      </c>
+      <c r="L25">
+        <v>-5.1182724078193437E-2</v>
+      </c>
+      <c r="M25">
+        <v>-7.1419033439177992E-2</v>
+      </c>
+      <c r="N25">
+        <v>-7.532078711140465E-2</v>
+      </c>
+      <c r="O25">
+        <v>-7.1996843821972328E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.49300940983024871</v>
+      </c>
+      <c r="C26">
+        <v>-7.1122378927144139E-2</v>
+      </c>
+      <c r="D26">
+        <v>-6.6664299257671977E-2</v>
+      </c>
+      <c r="E26">
+        <v>-7.2767207806691464E-2</v>
+      </c>
+      <c r="F26">
+        <v>-7.2142594973483645E-2</v>
+      </c>
+      <c r="G26">
+        <v>-4.8148474786003322E-2</v>
+      </c>
+      <c r="H26">
+        <v>-6.3647395105179028E-2</v>
+      </c>
+      <c r="I26">
+        <v>-6.0205624937981407E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.22412143319707251</v>
+      </c>
+      <c r="K26">
+        <v>3.3050771549136312E-2</v>
+      </c>
+      <c r="L26">
+        <v>-7.7518840572481151E-2</v>
+      </c>
+      <c r="M26">
+        <v>-7.0269535767983352E-2</v>
+      </c>
+      <c r="N26">
+        <v>-7.1150771646659935E-2</v>
+      </c>
+      <c r="O26">
+        <v>-7.1315961335358197E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.52402895190747012</v>
+      </c>
+      <c r="C27">
+        <v>-5.3356872290769547E-2</v>
+      </c>
+      <c r="D27">
+        <v>-6.8768127643010796E-2</v>
+      </c>
+      <c r="E27">
+        <v>-7.6346184781689794E-2</v>
+      </c>
+      <c r="F27">
+        <v>-7.2142594973484034E-2</v>
+      </c>
+      <c r="G27">
+        <v>-4.8243781996032423E-2</v>
+      </c>
+      <c r="H27">
+        <v>-6.6740525276260107E-2</v>
+      </c>
+      <c r="I27">
+        <v>-6.8753369408590656E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.19518053638586111</v>
+      </c>
+      <c r="K27">
+        <v>3.9864845516190739E-2</v>
+      </c>
+      <c r="L27">
+        <v>-7.8621476326640127E-2</v>
+      </c>
+      <c r="M27">
+        <v>-7.0272656102885758E-2</v>
+      </c>
+      <c r="N27">
+        <v>-7.1150771646660255E-2</v>
+      </c>
+      <c r="O27">
+        <v>-7.1315961335358335E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.46650053699672062</v>
+      </c>
+      <c r="C28">
+        <v>-6.0184270052146903E-2</v>
+      </c>
+      <c r="D28">
+        <v>-7.1438880725787107E-2</v>
+      </c>
+      <c r="E28">
+        <v>-7.370240890046667E-2</v>
+      </c>
+      <c r="F28">
+        <v>-7.2142594973483742E-2</v>
+      </c>
+      <c r="G28">
+        <v>-4.411536998058696E-2</v>
+      </c>
+      <c r="H28">
+        <v>-6.7413799730463519E-2</v>
+      </c>
+      <c r="I28">
+        <v>-6.8311046169088827E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.2370904979957088</v>
+      </c>
+      <c r="K28">
+        <v>3.0432067961166431E-2</v>
+      </c>
+      <c r="L28">
+        <v>-7.6968145511581681E-2</v>
+      </c>
+      <c r="M28">
+        <v>-6.7932726577823843E-2</v>
+      </c>
+      <c r="N28">
+        <v>-7.1150771646660019E-2</v>
+      </c>
+      <c r="O28">
+        <v>-7.1315961335358238E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.4113523015249233</v>
+      </c>
+      <c r="C29">
+        <v>-7.1122378927144528E-2</v>
+      </c>
+      <c r="D29">
+        <v>-7.1438880725787773E-2</v>
+      </c>
+      <c r="E29">
+        <v>-7.0011027660924693E-2</v>
+      </c>
+      <c r="F29">
+        <v>-7.2142594973484034E-2</v>
+      </c>
+      <c r="G29">
+        <v>-5.3071822727902611E-2</v>
+      </c>
+      <c r="H29">
+        <v>-7.3315963287308383E-2</v>
+      </c>
+      <c r="I29">
+        <v>-6.6801371597286982E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.30370774114769478</v>
+      </c>
+      <c r="K29">
+        <v>9.1318572964979652E-3</v>
+      </c>
+      <c r="L29">
+        <v>-7.4230534933559605E-2</v>
+      </c>
+      <c r="M29">
+        <v>-6.5456489500412482E-2</v>
+      </c>
+      <c r="N29">
+        <v>-7.1150771646660255E-2</v>
+      </c>
+      <c r="O29">
+        <v>-7.1315961335358335E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.33359745136171398</v>
+      </c>
+      <c r="C30">
+        <v>-7.1122378927144139E-2</v>
+      </c>
+      <c r="D30">
+        <v>-7.1438880725786871E-2</v>
+      </c>
+      <c r="E30">
+        <v>-6.3435739267385965E-2</v>
+      </c>
+      <c r="F30">
+        <v>-7.2142594973483645E-2</v>
+      </c>
+      <c r="G30">
+        <v>-5.3283901554466322E-2</v>
+      </c>
+      <c r="H30">
+        <v>-6.9449028543167535E-2</v>
+      </c>
+      <c r="I30">
+        <v>-7.5741999436641325E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.35708963028421131</v>
+      </c>
+      <c r="K30">
+        <v>4.8773241625417463E-3</v>
+      </c>
+      <c r="L30">
+        <v>-7.1757636988800555E-2</v>
+      </c>
+      <c r="M30">
+        <v>-6.4570075291844789E-2</v>
+      </c>
+      <c r="N30">
+        <v>-7.1150771646659935E-2</v>
+      </c>
+      <c r="O30">
+        <v>-7.1315961335358197E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.35578108117157231</v>
+      </c>
+      <c r="C31">
+        <v>-7.1122378927143778E-2</v>
+      </c>
+      <c r="D31">
+        <v>-6.269396294544094E-2</v>
+      </c>
+      <c r="E31">
+        <v>-3.4557615084217508E-2</v>
+      </c>
+      <c r="F31">
+        <v>-4.9192053917411001E-2</v>
+      </c>
+      <c r="G31">
+        <v>-4.0081644735478907E-2</v>
+      </c>
+      <c r="H31">
+        <v>-3.4995999325903783E-2</v>
+      </c>
+      <c r="I31">
+        <v>-7.3707610011955541E-2</v>
+      </c>
+      <c r="J31">
+        <v>0.2204293194122153</v>
+      </c>
+      <c r="K31">
+        <v>3.4357395048527403E-2</v>
+      </c>
+      <c r="L31">
+        <v>-4.7212137131664417E-2</v>
+      </c>
+      <c r="M31">
+        <v>-6.6881895559038673E-2</v>
+      </c>
+      <c r="N31">
+        <v>-7.1150771646659616E-2</v>
+      </c>
+      <c r="O31">
+        <v>-7.1315961335358072E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.30254200138123227</v>
+      </c>
+      <c r="C32">
+        <v>-7.1122378927144431E-2</v>
+      </c>
+      <c r="D32">
+        <v>-7.1438880725787537E-2</v>
+      </c>
+      <c r="E32">
+        <v>-3.2503821816731691E-2</v>
+      </c>
+      <c r="F32">
+        <v>-6.4737204268164456E-2</v>
+      </c>
+      <c r="G32">
+        <v>-4.5099503873563172E-2</v>
+      </c>
+      <c r="H32">
+        <v>-5.721272045968586E-2</v>
+      </c>
+      <c r="I32">
+        <v>-1.9044754062646638E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.31172526677088319</v>
+      </c>
+      <c r="K32">
+        <v>1.2292446972918101E-2</v>
+      </c>
+      <c r="L32">
+        <v>-7.890693938052365E-2</v>
+      </c>
+      <c r="M32">
+        <v>-6.4740762374599276E-2</v>
+      </c>
+      <c r="N32">
+        <v>-7.1150771646660171E-2</v>
+      </c>
+      <c r="O32">
+        <v>-7.1315961335358294E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.37797907282724852</v>
+      </c>
+      <c r="C33">
+        <v>-7.1122378927144431E-2</v>
+      </c>
+      <c r="D33">
+        <v>-7.1438880725787537E-2</v>
+      </c>
+      <c r="E33">
+        <v>-2.3268138308604022E-2</v>
+      </c>
+      <c r="F33">
+        <v>-6.4400685193766932E-2</v>
+      </c>
+      <c r="G33">
+        <v>-4.019270099119035E-2</v>
+      </c>
+      <c r="H33">
+        <v>-4.4470263416099692E-2</v>
+      </c>
+      <c r="I33">
+        <v>-6.0069016700432763E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.21595881521917701</v>
+      </c>
+      <c r="K33">
+        <v>-2.2869574370366168E-2</v>
+      </c>
+      <c r="L33">
+        <v>-2.6066052932249891E-2</v>
+      </c>
+      <c r="M33">
+        <v>-6.7070423071534574E-2</v>
+      </c>
+      <c r="N33">
+        <v>-7.1150771646660171E-2</v>
+      </c>
+      <c r="O33">
+        <v>-7.1315961335358294E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.63100982768234093</v>
+      </c>
+      <c r="C34">
+        <v>-6.4819810263418542E-2</v>
+      </c>
+      <c r="D34">
+        <v>-6.5429099577191729E-2</v>
+      </c>
+      <c r="E34">
+        <v>-5.5386856726178588E-2</v>
+      </c>
+      <c r="F34">
+        <v>-5.9908928761354237E-2</v>
+      </c>
+      <c r="G34">
+        <v>3.446017966269269E-3</v>
+      </c>
+      <c r="H34">
+        <v>-5.2479936344646753E-2</v>
+      </c>
+      <c r="I34">
+        <v>-7.5741999436642046E-2</v>
+      </c>
+      <c r="J34">
+        <v>4.362750129097423E-2</v>
+      </c>
+      <c r="K34">
+        <v>9.6236884638391702E-3</v>
+      </c>
+      <c r="L34">
+        <v>-7.4490751629949212E-2</v>
+      </c>
+      <c r="M34">
+        <v>-6.9944246570720195E-2</v>
+      </c>
+      <c r="N34">
+        <v>-6.2340395357777377E-2</v>
+      </c>
+      <c r="O34">
+        <v>-7.1315961335358391E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.44016164062243168</v>
+      </c>
+      <c r="C35">
+        <v>-7.1122378927144139E-2</v>
+      </c>
+      <c r="D35">
+        <v>-7.1438880725786871E-2</v>
+      </c>
+      <c r="E35">
+        <v>-3.8785108184344178E-2</v>
+      </c>
+      <c r="F35">
+        <v>-6.0016242644404742E-2</v>
+      </c>
+      <c r="G35">
+        <v>-3.1214775991149409E-2</v>
+      </c>
+      <c r="H35">
+        <v>-1.575803018288725E-2</v>
+      </c>
+      <c r="I35">
+        <v>-6.8387364931759342E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.15652899831792891</v>
+      </c>
+      <c r="K35">
+        <v>1.630175531510548E-3</v>
+      </c>
+      <c r="L35">
+        <v>-3.2631051085504612E-2</v>
+      </c>
+      <c r="M35">
+        <v>-6.7125846762558977E-2</v>
+      </c>
+      <c r="N35">
+        <v>-7.1150771646659935E-2</v>
+      </c>
+      <c r="O35">
+        <v>-7.1315961335358197E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.35772787885392437</v>
+      </c>
+      <c r="C36">
+        <v>-7.1122378927144056E-2</v>
+      </c>
+      <c r="D36">
+        <v>-7.1438880725786663E-2</v>
+      </c>
+      <c r="E36">
+        <v>-4.9483663006544942E-2</v>
+      </c>
+      <c r="F36">
+        <v>-6.8036282375053131E-2</v>
+      </c>
+      <c r="G36">
+        <v>-4.6389320288544027E-2</v>
+      </c>
+      <c r="H36">
+        <v>-6.5974039549640137E-2</v>
+      </c>
+      <c r="I36">
+        <v>-6.3167728890619501E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.2301370033242606</v>
+      </c>
+      <c r="K36">
+        <v>7.7690493964378798E-2</v>
+      </c>
+      <c r="L36">
+        <v>-5.0913107823129869E-2</v>
+      </c>
+      <c r="M36">
+        <v>-6.4053424299261641E-2</v>
+      </c>
+      <c r="N36">
+        <v>-7.1150771646659866E-2</v>
+      </c>
+      <c r="O36">
+        <v>-7.1315961335358169E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.40518178222120599</v>
+      </c>
+      <c r="C37">
+        <v>-7.1122378927144236E-2</v>
+      </c>
+      <c r="D37">
+        <v>-7.1438880725787107E-2</v>
+      </c>
+      <c r="E37">
+        <v>-4.7633055463351733E-2</v>
+      </c>
+      <c r="F37">
+        <v>-6.230851835429127E-2</v>
+      </c>
+      <c r="G37">
+        <v>-3.1753279654305668E-2</v>
+      </c>
+      <c r="H37">
+        <v>-4.8273596787642432E-2</v>
+      </c>
+      <c r="I37">
+        <v>-6.1322260403114837E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.19286677005926681</v>
+      </c>
+      <c r="K37">
+        <v>2.5929862784577609E-2</v>
+      </c>
+      <c r="L37">
+        <v>-4.5077828562424677E-2</v>
+      </c>
+      <c r="M37">
+        <v>-6.8016730477605924E-2</v>
+      </c>
+      <c r="N37">
+        <v>-6.7862469318890492E-2</v>
+      </c>
+      <c r="O37">
+        <v>-7.1315961335358238E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.3847225629574792</v>
+      </c>
+      <c r="C38">
+        <v>-7.1122378927143876E-2</v>
+      </c>
+      <c r="D38">
+        <v>-7.1438880725786219E-2</v>
+      </c>
+      <c r="E38">
+        <v>-3.1994448082227678E-2</v>
+      </c>
+      <c r="F38">
+        <v>-5.9685554203379523E-2</v>
+      </c>
+      <c r="G38">
+        <v>-4.3561604897661498E-2</v>
+      </c>
+      <c r="H38">
+        <v>-6.4127604322345433E-2</v>
+      </c>
+      <c r="I38">
+        <v>-6.7535492248415679E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.27082978119386347</v>
+      </c>
+      <c r="K38">
+        <v>-5.0271461648038807E-2</v>
+      </c>
+      <c r="L38">
+        <v>-4.0916538684437301E-2</v>
+      </c>
+      <c r="M38">
+        <v>-7.3038974826901984E-2</v>
+      </c>
+      <c r="N38">
+        <v>-7.11507716466597E-2</v>
+      </c>
+      <c r="O38">
+        <v>-7.1315961335358113E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.4176529194712254</v>
+      </c>
+      <c r="C39">
+        <v>-6.0990956255671823E-2</v>
+      </c>
+      <c r="D39">
+        <v>-7.1438880725787107E-2</v>
+      </c>
+      <c r="E39">
+        <v>-5.9050089574175547E-2</v>
+      </c>
+      <c r="F39">
+        <v>-6.7537043929323415E-2</v>
+      </c>
+      <c r="G39">
+        <v>-4.9973882633979783E-2</v>
+      </c>
+      <c r="H39">
+        <v>-6.8411533447202258E-2</v>
+      </c>
+      <c r="I39">
+        <v>-6.8276357480686709E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.2392328880309301</v>
+      </c>
+      <c r="K39">
+        <v>2.435125022185541E-2</v>
+      </c>
+      <c r="L39">
+        <v>-5.474265398538803E-2</v>
+      </c>
+      <c r="M39">
+        <v>-6.7297569703055185E-2</v>
+      </c>
+      <c r="N39">
+        <v>-7.1150771646660019E-2</v>
+      </c>
+      <c r="O39">
+        <v>-7.1315961335358238E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.37722201706122871</v>
+      </c>
+      <c r="C40">
+        <v>-7.1122378927144334E-2</v>
+      </c>
+      <c r="D40">
+        <v>-6.5459247972639314E-2</v>
+      </c>
+      <c r="E40">
+        <v>-5.2351240366121432E-2</v>
+      </c>
+      <c r="F40">
+        <v>-6.2025362468758137E-2</v>
+      </c>
+      <c r="G40">
+        <v>-3.7480298917420253E-2</v>
+      </c>
+      <c r="H40">
+        <v>-7.3315963287307911E-2</v>
+      </c>
+      <c r="I40">
+        <v>-6.7386352888325257E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.268886938716142</v>
+      </c>
+      <c r="K40">
+        <v>7.1220495759752242E-3</v>
+      </c>
+      <c r="L40">
+        <v>-6.1969936741708337E-2</v>
+      </c>
+      <c r="M40">
+        <v>-6.220017891937641E-2</v>
+      </c>
+      <c r="N40">
+        <v>-7.1150771646660102E-2</v>
+      </c>
+      <c r="O40">
+        <v>-7.1315961335358266E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.45191912027362641</v>
+      </c>
+      <c r="C41">
+        <v>-7.1122378927144431E-2</v>
+      </c>
+      <c r="D41">
+        <v>-7.1438880725787537E-2</v>
+      </c>
+      <c r="E41">
+        <v>-6.8413463780985173E-2</v>
+      </c>
+      <c r="F41">
+        <v>-7.2142594973483937E-2</v>
+      </c>
+      <c r="G41">
+        <v>-4.6680150560748299E-2</v>
+      </c>
+      <c r="H41">
+        <v>-7.3315963287308134E-2</v>
+      </c>
+      <c r="I41">
+        <v>-6.7148417473117408E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.20706656964031189</v>
+      </c>
+      <c r="K41">
+        <v>8.5830311554966898E-2</v>
+      </c>
+      <c r="L41">
+        <v>-6.7943430336624505E-2</v>
+      </c>
+      <c r="M41">
+        <v>-7.3038974826902858E-2</v>
+      </c>
+      <c r="N41">
+        <v>-7.1150771646660171E-2</v>
+      </c>
+      <c r="O41">
+        <v>-7.1315961335358294E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.41870532465700372</v>
+      </c>
+      <c r="C42">
+        <v>-7.1122378927144431E-2</v>
+      </c>
+      <c r="D42">
+        <v>-7.1438880725787537E-2</v>
+      </c>
+      <c r="E42">
+        <v>-6.7521552698640325E-2</v>
+      </c>
+      <c r="F42">
+        <v>-7.2142594973483937E-2</v>
+      </c>
+      <c r="G42">
+        <v>-4.5180092510886803E-2</v>
+      </c>
+      <c r="H42">
+        <v>-7.3315963287308134E-2</v>
+      </c>
+      <c r="I42">
+        <v>-6.3154961007949179E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.23000036975178731</v>
+      </c>
+      <c r="K42">
+        <v>0.1017482272651451</v>
+      </c>
+      <c r="L42">
+        <v>-7.890693938052365E-2</v>
+      </c>
+      <c r="M42">
+        <v>-7.3038974826902858E-2</v>
+      </c>
+      <c r="N42">
+        <v>-7.1150771646660171E-2</v>
+      </c>
+      <c r="O42">
+        <v>-7.1315961335358294E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.44520928259407477</v>
+      </c>
+      <c r="C43">
+        <v>-7.1122378927144889E-2</v>
+      </c>
+      <c r="D43">
+        <v>-6.5026979436927368E-2</v>
+      </c>
+      <c r="E43">
+        <v>-4.9517191578852211E-2</v>
+      </c>
+      <c r="F43">
+        <v>-6.5840829603527079E-2</v>
+      </c>
+      <c r="G43">
+        <v>-4.0036117173095652E-2</v>
+      </c>
+      <c r="H43">
+        <v>-5.5846668684356317E-2</v>
+      </c>
+      <c r="I43">
+        <v>-4.3941811780754389E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.17946964923737899</v>
+      </c>
+      <c r="K43">
+        <v>1.275200415738369E-2</v>
+      </c>
+      <c r="L43">
+        <v>-4.2664804916551682E-2</v>
+      </c>
+      <c r="M43">
+        <v>-7.005570191156292E-2</v>
+      </c>
+      <c r="N43">
+        <v>-7.1150771646660574E-2</v>
+      </c>
+      <c r="O43">
+        <v>-7.131596133535846E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>9.8095624574269666E-2</v>
+      </c>
+      <c r="C44">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D44">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="E44">
+        <v>-5.2457281989593721E-2</v>
+      </c>
+      <c r="F44">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="G44">
+        <v>-6.686328787373691E-2</v>
+      </c>
+      <c r="H44">
+        <v>-6.9501007260974343E-2</v>
+      </c>
+      <c r="I44">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.64085711387121602</v>
+      </c>
+      <c r="K44">
+        <v>-3.5580225800369071E-3</v>
+      </c>
+      <c r="L44">
+        <v>-5.3471789446223307E-2</v>
+      </c>
+      <c r="M44">
+        <v>-6.4529920723488371E-2</v>
+      </c>
+      <c r="N44">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O44">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.12556214461027251</v>
+      </c>
+      <c r="C45">
+        <v>-7.1428571428570745E-2</v>
+      </c>
+      <c r="D45">
+        <v>-6.6733234751588655E-2</v>
+      </c>
+      <c r="E45">
+        <v>-1.8499321615317161E-2</v>
+      </c>
+      <c r="F45">
+        <v>-4.2296141591840378E-2</v>
+      </c>
+      <c r="G45">
+        <v>-3.5893409759592057E-2</v>
+      </c>
+      <c r="H45">
+        <v>-5.2327088129029559E-2</v>
+      </c>
+      <c r="I45">
+        <v>-6.9401039681692131E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.39938564263609688</v>
+      </c>
+      <c r="K45">
+        <v>3.2722533042670282E-2</v>
+      </c>
+      <c r="L45">
+        <v>8.1787276857179826E-3</v>
+      </c>
+      <c r="M45">
+        <v>-6.6413098159976092E-2</v>
+      </c>
+      <c r="N45">
+        <v>-7.1428571428570745E-2</v>
+      </c>
+      <c r="O45">
+        <v>-7.1428571428570745E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.45157928491261839</v>
+      </c>
+      <c r="C46">
+        <v>-1.286311892372464E-2</v>
+      </c>
+      <c r="D46">
+        <v>-6.9898115352660412E-2</v>
+      </c>
+      <c r="E46">
+        <v>-6.336816942877524E-2</v>
+      </c>
+      <c r="F46">
+        <v>-6.0307257276954039E-2</v>
+      </c>
+      <c r="G46">
+        <v>-3.5411838442141283E-2</v>
+      </c>
+      <c r="H46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="I46">
+        <v>-4.4186453277362182E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.15181395484425789</v>
+      </c>
+      <c r="K46">
+        <v>3.5397262669990229E-2</v>
+      </c>
+      <c r="L46">
+        <v>-7.0612328188085549E-2</v>
+      </c>
+      <c r="M46">
+        <v>-6.7857507251446347E-2</v>
+      </c>
+      <c r="N46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="O46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.45288194951116317</v>
+      </c>
+      <c r="C47">
+        <v>-1.341018532029732E-2</v>
+      </c>
+      <c r="D47">
+        <v>-6.7853494819786739E-2</v>
+      </c>
+      <c r="E47">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="F47">
+        <v>-5.95797460965998E-2</v>
+      </c>
+      <c r="G47">
+        <v>-1.3614475412227951E-2</v>
+      </c>
+      <c r="H47">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="I47">
+        <v>-4.364511892601753E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.1340872610535534</v>
+      </c>
+      <c r="K47">
+        <v>3.9705238581643411E-2</v>
+      </c>
+      <c r="L47">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="M47">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="N47">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O47">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5.9644516868851562E-2</v>
+      </c>
+      <c r="C48">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D48">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E48">
+        <v>-1.608425372683954E-2</v>
+      </c>
+      <c r="F48">
+        <v>-6.2028486933430022E-2</v>
+      </c>
+      <c r="G48">
+        <v>-4.7664312873438357E-2</v>
+      </c>
+      <c r="H48">
+        <v>-6.3401532983282188E-2</v>
+      </c>
+      <c r="I48">
+        <v>-1.4922445530810629E-2</v>
+      </c>
+      <c r="J48">
+        <v>0.56070070613796841</v>
+      </c>
+      <c r="K48">
+        <v>5.5676262900597306E-3</v>
+      </c>
+      <c r="L48">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M48">
+        <v>-6.4668960106222612E-2</v>
+      </c>
+      <c r="N48">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O48">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.15304644667425241</v>
+      </c>
+      <c r="C49">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D49">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E49">
+        <v>-5.2239577945589234E-3</v>
+      </c>
+      <c r="F49">
+        <v>-6.1601324092272799E-2</v>
+      </c>
+      <c r="G49">
+        <v>-3.6153925726699281E-2</v>
+      </c>
+      <c r="H49">
+        <v>-5.7049756904934523E-2</v>
+      </c>
+      <c r="I49">
+        <v>-5.580842039929676E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.39148650046550099</v>
+      </c>
+      <c r="K49">
+        <v>-3.7705596358746318E-2</v>
+      </c>
+      <c r="L49">
+        <v>6.1290989965863081E-2</v>
+      </c>
+      <c r="M49">
+        <v>-6.656667011482377E-2</v>
+      </c>
+      <c r="N49">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O49">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.54136400322840983</v>
+      </c>
+      <c r="C50">
+        <v>-4.0556900726392377E-2</v>
+      </c>
+      <c r="D50">
+        <v>-6.9410815173527332E-2</v>
+      </c>
+      <c r="E50">
+        <v>-4.9838579499596643E-2</v>
+      </c>
+      <c r="F50">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G50">
+        <v>5.6598062953994867E-2</v>
+      </c>
+      <c r="H50">
+        <v>-6.3660209846650537E-2</v>
+      </c>
+      <c r="I50">
+        <v>-6.7090395480226162E-2</v>
+      </c>
+      <c r="J50">
+        <v>6.5879741727199015E-2</v>
+      </c>
+      <c r="K50">
+        <v>-1.8765133171913199E-2</v>
+      </c>
+      <c r="L50">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M50">
+        <v>-6.880548829701387E-2</v>
+      </c>
+      <c r="N50">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O50">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.55171562218542092</v>
+      </c>
+      <c r="C51">
+        <v>-4.4379557802376707E-2</v>
+      </c>
+      <c r="D51">
+        <v>-7.0310003195909229E-2</v>
+      </c>
+      <c r="E51">
+        <v>-6.2886777651878265E-2</v>
+      </c>
+      <c r="F51">
+        <v>-6.3903657863389363E-2</v>
+      </c>
+      <c r="G51">
+        <v>-2.058456085301727E-2</v>
+      </c>
+      <c r="H51">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I51">
+        <v>-6.6039106307562601E-2</v>
+      </c>
+      <c r="J51">
+        <v>9.1170574392050924E-2</v>
+      </c>
+      <c r="K51">
+        <v>4.0021499753043289E-2</v>
+      </c>
+      <c r="L51">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="M51">
+        <v>-6.9089746942095909E-2</v>
+      </c>
+      <c r="N51">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O51">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.48834026158369631</v>
+      </c>
+      <c r="C52">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="D52">
+        <v>-6.8893845685897376E-2</v>
+      </c>
+      <c r="E52">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="F52">
+        <v>-5.4496603467505053E-2</v>
+      </c>
+      <c r="G52">
+        <v>-2.286322619892547E-2</v>
+      </c>
+      <c r="H52">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="I52">
+        <v>-6.3621616141133971E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.18457872858156721</v>
+      </c>
+      <c r="K52">
+        <v>3.056879245665579E-2</v>
+      </c>
+      <c r="L52">
+        <v>-6.9400790834432194E-2</v>
+      </c>
+      <c r="M52">
+        <v>-6.7068843151171356E-2</v>
+      </c>
+      <c r="N52">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="O52">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.45849123116242252</v>
+      </c>
+      <c r="C53">
+        <v>-2.3515760406567731E-2</v>
+      </c>
+      <c r="D53">
+        <v>-6.84468728885749E-2</v>
+      </c>
+      <c r="E53">
+        <v>-6.2483475808582961E-2</v>
+      </c>
+      <c r="F53">
+        <v>-6.5156722775475726E-2</v>
+      </c>
+      <c r="G53">
+        <v>-3.9966510972062337E-2</v>
+      </c>
+      <c r="H53">
+        <v>-7.1428571428570509E-2</v>
+      </c>
+      <c r="I53">
+        <v>-6.4745454011338396E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.18972709379865549</v>
+      </c>
+      <c r="K53">
+        <v>2.347169589612624E-2</v>
+      </c>
+      <c r="L53">
+        <v>-7.0400399518227089E-2</v>
+      </c>
+      <c r="M53">
+        <v>-6.268911019065164E-2</v>
+      </c>
+      <c r="N53">
+        <v>-7.1428571428570509E-2</v>
+      </c>
+      <c r="O53">
+        <v>-7.1428571428570509E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.46633486509457017</v>
+      </c>
+      <c r="C54">
+        <v>-6.336161569599158E-2</v>
+      </c>
+      <c r="D54">
+        <v>-6.8201789135539648E-2</v>
+      </c>
+      <c r="E54">
+        <v>-4.2992552471225888E-2</v>
+      </c>
+      <c r="F54">
+        <v>-5.5899681643354453E-2</v>
+      </c>
+      <c r="G54">
+        <v>6.62138607585816E-2</v>
+      </c>
+      <c r="H54">
+        <v>-6.1042365922874438E-2</v>
+      </c>
+      <c r="I54">
         <v>-7.1428571428571938E-2</v>
       </c>
-      <c r="E3">
-        <v>-6.4937741014395145E-2</v>
-      </c>
-      <c r="F3">
+      <c r="J54">
+        <v>8.6986271769975962E-2</v>
+      </c>
+      <c r="K54">
+        <v>2.283236577881678E-3</v>
+      </c>
+      <c r="L54">
+        <v>-6.0336507296273843E-2</v>
+      </c>
+      <c r="M54">
+        <v>-6.890764776214045E-2</v>
+      </c>
+      <c r="N54">
+        <v>-5.8218931416471463E-2</v>
+      </c>
+      <c r="O54">
         <v>-7.1428571428571938E-2</v>
       </c>
-      <c r="G3">
-        <v>-5.1853051131848238E-2</v>
-      </c>
-      <c r="H3">
-        <v>-5.5459068028613043E-2</v>
-      </c>
-      <c r="I3">
-        <v>-5.988931735892418E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.25723411144799929</v>
-      </c>
-      <c r="K3">
-        <v>-2.9142503900390238E-3</v>
-      </c>
-      <c r="L3">
-        <v>-6.9471019398899381E-2</v>
-      </c>
-      <c r="M3">
-        <v>-6.9367990344706268E-2</v>
-      </c>
-      <c r="N3">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="O3">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>0.61840829147547116</v>
-      </c>
-      <c r="C4">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="D4">
-        <v>-6.8794059319949002E-2</v>
-      </c>
-      <c r="E4">
-        <v>-5.7850701330284207E-2</v>
-      </c>
-      <c r="F4">
-        <v>-6.1295832549252749E-2</v>
-      </c>
-      <c r="G4">
-        <v>-2.380469869577221E-2</v>
-      </c>
-      <c r="H4">
-        <v>-6.7274148488051105E-2</v>
-      </c>
-      <c r="I4">
-        <v>-6.8084767598396712E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.10224657296295719</v>
-      </c>
-      <c r="K4">
-        <v>-3.0492306356122802E-2</v>
-      </c>
-      <c r="L4">
-        <v>-6.0890522994080237E-2</v>
-      </c>
-      <c r="M4">
-        <v>-7.0212642763053459E-2</v>
-      </c>
-      <c r="N4">
-        <v>-6.9098041486328463E-2</v>
-      </c>
-      <c r="O4">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>0.56233194118656682</v>
-      </c>
-      <c r="C5">
-        <v>-6.2217518164654713E-2</v>
-      </c>
-      <c r="D5">
-        <v>-6.8424967103381182E-2</v>
-      </c>
-      <c r="E5">
-        <v>-4.1592768465015258E-2</v>
-      </c>
-      <c r="F5">
-        <v>-5.6510669946793518E-2</v>
-      </c>
-      <c r="G5">
-        <v>7.2143715315521495E-2</v>
-      </c>
-      <c r="H5">
-        <v>-6.3318839750557798E-2</v>
-      </c>
-      <c r="I5">
-        <v>-6.4019680759768882E-2</v>
-      </c>
-      <c r="J5">
-        <v>5.1819326048400817E-2</v>
-      </c>
-      <c r="K5">
-        <v>-5.1104182161451003E-2</v>
-      </c>
-      <c r="L5">
-        <v>-6.7323645517478131E-2</v>
-      </c>
-      <c r="M5">
-        <v>-6.8925567824246192E-2</v>
-      </c>
-      <c r="N5">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O5">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>0.45157928491261839</v>
-      </c>
-      <c r="C6">
-        <v>-1.286311892372464E-2</v>
-      </c>
-      <c r="D6">
-        <v>-6.9898115352660412E-2</v>
-      </c>
-      <c r="E6">
-        <v>-6.336816942877524E-2</v>
-      </c>
-      <c r="F6">
-        <v>-6.0307257276954039E-2</v>
-      </c>
-      <c r="G6">
-        <v>-3.5411838442141283E-2</v>
-      </c>
-      <c r="H6">
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.23003739715781599</v>
+      </c>
+      <c r="C55">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D55">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="E55">
+        <v>-2.3470456245325479E-2</v>
+      </c>
+      <c r="F55">
+        <v>-5.6035901271503409E-2</v>
+      </c>
+      <c r="G55">
+        <v>-1.509349289453994E-2</v>
+      </c>
+      <c r="H55">
+        <v>-4.273747195213147E-2</v>
+      </c>
+      <c r="I55">
+        <v>-6.4098728496634172E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.28647718773373232</v>
+      </c>
+      <c r="K55">
+        <v>-7.5542258788332192E-3</v>
+      </c>
+      <c r="L55">
+        <v>4.4801795063575338E-2</v>
+      </c>
+      <c r="M55">
+        <v>-6.6611817501869869E-2</v>
+      </c>
+      <c r="N55">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O55">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.48445497906002799</v>
+      </c>
+      <c r="C56">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D56">
+        <v>-6.8374825500232647E-2</v>
+      </c>
+      <c r="E56">
+        <v>-5.025593299208931E-2</v>
+      </c>
+      <c r="F56">
+        <v>-5.9213587715216363E-2</v>
+      </c>
+      <c r="G56">
+        <v>-5.2640763145648927E-3</v>
+      </c>
+      <c r="H56">
+        <v>-5.8501046998603902E-2</v>
+      </c>
+      <c r="I56">
+        <v>-6.6847952536063168E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.16289553280595609</v>
+      </c>
+      <c r="K56">
+        <v>-2.8777919962773339E-2</v>
+      </c>
+      <c r="L56">
+        <v>-2.745463006049317E-2</v>
+      </c>
+      <c r="M56">
+        <v>-6.8374825500232647E-2</v>
+      </c>
+      <c r="N56">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O56">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.12797255976805719</v>
+      </c>
+      <c r="C57">
         <v>-7.1428571428571105E-2</v>
       </c>
-      <c r="I6">
-        <v>-4.4186453277362182E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.15181395484425789</v>
-      </c>
-      <c r="K6">
-        <v>3.5397262669990229E-2</v>
-      </c>
-      <c r="L6">
-        <v>-7.0612328188085549E-2</v>
-      </c>
-      <c r="M6">
-        <v>-6.7857507251446347E-2</v>
-      </c>
-      <c r="N6">
+      <c r="D57">
         <v>-7.1428571428571105E-2</v>
       </c>
-      <c r="O6">
+      <c r="E57">
+        <v>-3.6050951377556671E-2</v>
+      </c>
+      <c r="F57">
+        <v>-6.6216194806634973E-2</v>
+      </c>
+      <c r="G57">
+        <v>-5.0689966571079742E-2</v>
+      </c>
+      <c r="H57">
+        <v>-6.7768817630190478E-2</v>
+      </c>
+      <c r="I57">
+        <v>-5.8896687209873219E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.41653860168887352</v>
+      </c>
+      <c r="K57">
+        <v>8.6051743532058675E-2</v>
+      </c>
+      <c r="L57">
+        <v>-1.116937847557688E-3</v>
+      </c>
+      <c r="M57">
+        <v>-6.4109063831809435E-2</v>
+      </c>
+      <c r="N57">
         <v>-7.1428571428571105E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>0.45288194951116317</v>
-      </c>
-      <c r="C7">
-        <v>-1.341018532029732E-2</v>
-      </c>
-      <c r="D7">
-        <v>-6.7853494819786739E-2</v>
-      </c>
-      <c r="E7">
+      <c r="O57">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.3929824044327862</v>
+      </c>
+      <c r="C58">
         <v>-7.1428571428571216E-2</v>
       </c>
-      <c r="F7">
-        <v>-5.95797460965998E-2</v>
-      </c>
-      <c r="G7">
-        <v>-1.3614475412227951E-2</v>
-      </c>
-      <c r="H7">
+      <c r="D58">
         <v>-7.1428571428571216E-2</v>
       </c>
-      <c r="I7">
-        <v>-4.364511892601753E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.1340872610535534</v>
-      </c>
-      <c r="K7">
-        <v>3.9705238581643411E-2</v>
-      </c>
-      <c r="L7">
+      <c r="E58">
+        <v>-3.9243714816233809E-2</v>
+      </c>
+      <c r="F58">
+        <v>-6.5858115476436024E-2</v>
+      </c>
+      <c r="G58">
+        <v>-2.851542927878789E-2</v>
+      </c>
+      <c r="H58">
         <v>-7.1428571428571216E-2</v>
       </c>
-      <c r="M7">
+      <c r="I58">
+        <v>-6.4207610009136454E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.2443337557841376</v>
+      </c>
+      <c r="K58">
+        <v>-7.2651713873088343E-3</v>
+      </c>
+      <c r="L58">
+        <v>-6.0272922868342682E-3</v>
+      </c>
+      <c r="M58">
+        <v>-6.9055969819328489E-2</v>
+      </c>
+      <c r="N58">
         <v>-7.1428571428571216E-2</v>
       </c>
-      <c r="N7">
+      <c r="O58">
         <v>-7.1428571428571216E-2</v>
       </c>
-      <c r="O7">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>0.54136400322840983</v>
-      </c>
-      <c r="C8">
-        <v>-4.0556900726392377E-2</v>
-      </c>
-      <c r="D8">
-        <v>-6.9410815173527332E-2</v>
-      </c>
-      <c r="E8">
-        <v>-4.9838579499596643E-2</v>
-      </c>
-      <c r="F8">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G8">
-        <v>5.6598062953994867E-2</v>
-      </c>
-      <c r="H8">
-        <v>-6.3660209846650537E-2</v>
-      </c>
-      <c r="I8">
-        <v>-6.7090395480226162E-2</v>
-      </c>
-      <c r="J8">
-        <v>6.5879741727199015E-2</v>
-      </c>
-      <c r="K8">
-        <v>-1.8765133171913199E-2</v>
-      </c>
-      <c r="L8">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M8">
-        <v>-6.880548829701387E-2</v>
-      </c>
-      <c r="N8">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O8">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>0.48445497906002799</v>
-      </c>
-      <c r="C9">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D9">
-        <v>-6.8374825500232647E-2</v>
-      </c>
-      <c r="E9">
-        <v>-5.025593299208931E-2</v>
-      </c>
-      <c r="F9">
-        <v>-5.9213587715216363E-2</v>
-      </c>
-      <c r="G9">
-        <v>-5.2640763145648927E-3</v>
-      </c>
-      <c r="H9">
-        <v>-5.8501046998603902E-2</v>
-      </c>
-      <c r="I9">
-        <v>-6.6847952536063168E-2</v>
-      </c>
-      <c r="J9">
-        <v>0.16289553280595609</v>
-      </c>
-      <c r="K9">
-        <v>-2.8777919962773339E-2</v>
-      </c>
-      <c r="L9">
-        <v>-2.745463006049317E-2</v>
-      </c>
-      <c r="M9">
-        <v>-6.8374825500232647E-2</v>
-      </c>
-      <c r="N9">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O9">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>0.3929824044327862</v>
-      </c>
-      <c r="C10">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D10">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="E10">
-        <v>-3.9243714816233809E-2</v>
-      </c>
-      <c r="F10">
-        <v>-6.5858115476436024E-2</v>
-      </c>
-      <c r="G10">
-        <v>-2.851542927878789E-2</v>
-      </c>
-      <c r="H10">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="I10">
-        <v>-6.4207610009136454E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.2443337557841376</v>
-      </c>
-      <c r="K10">
-        <v>-7.2651713873088343E-3</v>
-      </c>
-      <c r="L10">
-        <v>-6.0272922868342682E-3</v>
-      </c>
-      <c r="M10">
-        <v>-6.9055969819328489E-2</v>
-      </c>
-      <c r="N10">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O10">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.18672730814763769</v>
+      </c>
+      <c r="C59">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D59">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E59">
+        <v>-3.3874810807570467E-2</v>
+      </c>
+      <c r="F59">
+        <v>-5.8945617479132517E-2</v>
+      </c>
+      <c r="G59">
+        <v>-1.6356715769282461E-2</v>
+      </c>
+      <c r="H59">
+        <v>-5.8945617479132517E-2</v>
+      </c>
+      <c r="I59">
+        <v>-5.705743957081387E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.3506840898532918</v>
+      </c>
+      <c r="K59">
+        <v>2.2350931351246221E-2</v>
+      </c>
+      <c r="L59">
+        <v>1.353943444576013E-2</v>
+      </c>
+      <c r="M59">
+        <v>-6.7337519293881223E-2</v>
+      </c>
+      <c r="N59">
+        <v>-6.6498329112406399E-2</v>
+      </c>
+      <c r="O59">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.1613958560523451</v>
+      </c>
+      <c r="C60">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="D60">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="E60">
+        <v>-1.5485278080697461E-2</v>
+      </c>
+      <c r="F60">
+        <v>-5.5616139585604678E-2</v>
+      </c>
+      <c r="G60">
+        <v>-4.4056706652125972E-2</v>
+      </c>
+      <c r="H60">
+        <v>-6.6848418756815256E-2</v>
+      </c>
+      <c r="I60">
+        <v>-6.3249727371864198E-2</v>
+      </c>
+      <c r="J60">
+        <v>0.48844056706652178</v>
+      </c>
+      <c r="K60">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="L60">
+        <v>2.3991275899673301E-2</v>
+      </c>
+      <c r="M60">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="N60">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="O60">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.2021683673469386</v>
+      </c>
+      <c r="C61">
+        <v>-5.8460884353741541E-2</v>
+      </c>
+      <c r="D61">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E61">
+        <v>-4.7300170068027163E-2</v>
+      </c>
+      <c r="F61">
+        <v>-6.5582482993197314E-2</v>
+      </c>
+      <c r="G61">
+        <v>-5.9098639455782268E-2</v>
+      </c>
+      <c r="H61">
+        <v>-6.898384353741506E-2</v>
+      </c>
+      <c r="I61">
+        <v>-6.3988095238095358E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.43261054421768708</v>
+      </c>
+      <c r="K61">
+        <v>2.0408163265306051E-2</v>
+      </c>
+      <c r="L61">
+        <v>-1.0735544217686979E-2</v>
+      </c>
+      <c r="M61">
+        <v>-6.67517006802721E-2</v>
+      </c>
+      <c r="N61">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O61">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>0.57651035986913879</v>
       </c>
-      <c r="C11">
+      <c r="C62">
         <v>-4.0487095601598883E-2</v>
       </c>
-      <c r="D11">
+      <c r="D62">
         <v>-7.0308978553252938E-2</v>
       </c>
-      <c r="E11">
+      <c r="E62">
         <v>-6.3489640130861086E-2</v>
       </c>
-      <c r="F11">
+      <c r="F62">
         <v>-5.9825517993456589E-2</v>
       </c>
-      <c r="G11">
+      <c r="G62">
         <v>-9.7491821155939844E-3</v>
       </c>
-      <c r="H11">
+      <c r="H62">
         <v>-7.1428571428570981E-2</v>
       </c>
-      <c r="I11">
+      <c r="I62">
         <v>-6.5932388222464264E-2</v>
       </c>
-      <c r="J11">
+      <c r="J62">
         <v>6.7604507451836118E-2</v>
       </c>
-      <c r="K11">
+      <c r="K62">
         <v>2.007270083605989E-2</v>
       </c>
-      <c r="L11">
+      <c r="L62">
         <v>-7.1428571428570981E-2</v>
       </c>
-      <c r="M11">
+      <c r="M62">
         <v>-6.8680479825517601E-2</v>
       </c>
-      <c r="N11">
+      <c r="N62">
         <v>-7.1428571428570981E-2</v>
       </c>
-      <c r="O11">
+      <c r="O62">
         <v>-7.1428571428570981E-2</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B240F0-3B4A-4FA2-A6A5-D8748662185F}">
-  <dimension ref="A1:O55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.63884701508920338</v>
-      </c>
-      <c r="C2">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.091749967070119E-2</v>
-      </c>
-      <c r="E2">
-        <v>-6.6811070294319399E-3</v>
-      </c>
-      <c r="F2">
-        <v>-6.2515550221727945E-2</v>
-      </c>
-      <c r="G2">
-        <v>-3.1166303218346871E-2</v>
-      </c>
-      <c r="H2">
-        <v>-5.3602529014884187E-2</v>
-      </c>
-      <c r="I2">
-        <v>-3.1780994336060457E-2</v>
-      </c>
-      <c r="J2">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="K2">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="L2">
-        <v>-5.9442094633160983E-2</v>
-      </c>
-      <c r="M2">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="N2">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O2">
-        <v>-6.7433079163434495E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.29177094804284731</v>
-      </c>
-      <c r="C3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D3">
-        <v>-6.0917008709580438E-2</v>
-      </c>
-      <c r="E3">
-        <v>-4.8002803083391589E-2</v>
-      </c>
-      <c r="F3">
-        <v>-5.961557713484824E-2</v>
-      </c>
-      <c r="G3">
-        <v>-1.406547201922102E-2</v>
-      </c>
-      <c r="H3">
-        <v>-5.2808088897787361E-2</v>
-      </c>
-      <c r="I3">
-        <v>-6.8825708279106876E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.40339373310641707</v>
-      </c>
-      <c r="K3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="L3">
-        <v>-3.5689258184002363E-2</v>
-      </c>
-      <c r="M3">
-        <v>-6.9526479127039478E-2</v>
-      </c>
-      <c r="N3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0.79907142857142888</v>
-      </c>
-      <c r="C4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="D4">
-        <v>-1.9528571428571121E-2</v>
-      </c>
-      <c r="E4">
-        <v>-5.1328571428571168E-2</v>
-      </c>
-      <c r="F4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="G4">
-        <v>-3.0828571428571171E-2</v>
-      </c>
-      <c r="H4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="I4">
-        <v>-6.3628571428570938E-2</v>
-      </c>
-      <c r="J4">
-        <v>-6.8928571428570992E-2</v>
-      </c>
-      <c r="K4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="L4">
-        <v>-6.4828571428571041E-2</v>
-      </c>
-      <c r="M4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="N4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="O4">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0.55266123439667136</v>
-      </c>
-      <c r="C5">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.3672561257512581E-2</v>
-      </c>
-      <c r="E5">
-        <v>-1.206368469717993E-2</v>
-      </c>
-      <c r="F5">
-        <v>-6.0202843273231638E-2</v>
-      </c>
-      <c r="G5">
-        <v>-1.5805594082293092E-2</v>
-      </c>
-      <c r="H5">
-        <v>-4.9583911234396733E-2</v>
-      </c>
-      <c r="I5">
-        <v>-1.99520342117432E-2</v>
-      </c>
-      <c r="J5">
-        <v>-5.7168862690707388E-2</v>
-      </c>
-      <c r="K5">
-        <v>-4.2504623208506752E-2</v>
-      </c>
-      <c r="L5">
-        <v>-6.4349283402681465E-2</v>
-      </c>
-      <c r="M5">
-        <v>-7.0417244567730158E-2</v>
-      </c>
-      <c r="N5">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O5">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.61439279022039817</v>
-      </c>
-      <c r="C6">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.923767883168309E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.6917700246875168E-3</v>
-      </c>
-      <c r="F6">
-        <v>-5.5188721334879502E-2</v>
-      </c>
-      <c r="G6">
-        <v>-4.3871389905116203E-3</v>
-      </c>
-      <c r="H6">
-        <v>-4.9983641176645069E-2</v>
-      </c>
-      <c r="I6">
-        <v>-4.8734421938668802E-2</v>
-      </c>
-      <c r="J6">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="K6">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="L6">
-        <v>-6.3204544778560634E-2</v>
-      </c>
-      <c r="M6">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="N6">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="O6">
-        <v>-6.7680913714642216E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.56664002249951895</v>
-      </c>
-      <c r="C7">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D7">
-        <v>4.2031173675562777E-2</v>
-      </c>
-      <c r="E7">
-        <v>4.729339668724155E-3</v>
-      </c>
-      <c r="F7">
-        <v>-5.3088503041875637E-2</v>
-      </c>
-      <c r="G7">
-        <v>6.2835827523426294E-3</v>
-      </c>
-      <c r="H7">
-        <v>-4.4281125568038732E-2</v>
-      </c>
-      <c r="I7">
-        <v>-3.7546072205692831E-2</v>
-      </c>
-      <c r="J7">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="K7">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="L7">
-        <v>-6.168864810456353E-2</v>
-      </c>
-      <c r="M7">
-        <v>-7.0806874195123937E-2</v>
-      </c>
-      <c r="N7">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O7">
-        <v>-6.6558609766567411E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.61245739703079016</v>
-      </c>
-      <c r="C8">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="D8">
-        <v>3.0760787938308872E-3</v>
-      </c>
-      <c r="E8">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="F8">
-        <v>-5.141239674195569E-2</v>
-      </c>
-      <c r="G8">
-        <v>4.1288775922823838E-2</v>
-      </c>
-      <c r="H8">
-        <v>-4.7267633296747442E-2</v>
-      </c>
-      <c r="I8">
-        <v>-4.6054531800588598E-2</v>
-      </c>
-      <c r="J8">
-        <v>-6.9406735601640276E-2</v>
-      </c>
-      <c r="K8">
-        <v>-5.7477904222748052E-2</v>
-      </c>
-      <c r="L8">
-        <v>-2.917220264571602E-2</v>
-      </c>
-      <c r="M8">
-        <v>-7.0316561723759066E-2</v>
-      </c>
-      <c r="N8">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="O8">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0.53369081343585578</v>
-      </c>
-      <c r="C9">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D9">
-        <v>6.2727640631323762E-3</v>
-      </c>
-      <c r="E9">
-        <v>-1.6693646297045801E-2</v>
-      </c>
-      <c r="F9">
-        <v>-5.3925536220153877E-2</v>
-      </c>
-      <c r="G9">
-        <v>3.0250910562525019E-2</v>
-      </c>
-      <c r="H9">
-        <v>-1.031970861999216E-2</v>
-      </c>
-      <c r="I9">
-        <v>-4.9372723593686753E-2</v>
-      </c>
-      <c r="J9">
-        <v>-6.7887494941319404E-2</v>
-      </c>
-      <c r="K9">
-        <v>-6.1614730878187203E-2</v>
-      </c>
-      <c r="L9">
-        <v>-2.5900445163901501E-2</v>
-      </c>
-      <c r="M9">
-        <v>-7.0214488061513716E-2</v>
-      </c>
-      <c r="N9">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O9">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.85765869035678466</v>
-      </c>
-      <c r="C10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E10">
-        <v>-6.069637483880197E-2</v>
-      </c>
-      <c r="F10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="G10">
-        <v>-5.1568992692362772E-2</v>
-      </c>
-      <c r="H10">
-        <v>-6.9723456082533303E-2</v>
-      </c>
-      <c r="I10">
-        <v>-3.8931078951139113E-2</v>
-      </c>
-      <c r="J10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="K10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="L10">
-        <v>-6.5310216363375834E-2</v>
-      </c>
-      <c r="M10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="N10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O10">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0.13033460228411151</v>
-      </c>
-      <c r="C11">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D11">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="E11">
-        <v>-5.6601883390102352E-2</v>
-      </c>
-      <c r="F11">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="G11">
-        <v>-5.800440793428159E-2</v>
-      </c>
-      <c r="H11">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I11">
-        <v>3.2859146463634428E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.21588859947906219</v>
-      </c>
-      <c r="K11">
-        <v>0.24143458224804629</v>
-      </c>
-      <c r="L11">
-        <v>-3.5463834902825293E-2</v>
-      </c>
-      <c r="M11">
-        <v>-6.7721899418954234E-2</v>
-      </c>
-      <c r="N11">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O11">
-        <v>-4.5582047685834542E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0.88096192671716378</v>
-      </c>
-      <c r="C12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D12">
-        <v>-6.551497014562066E-2</v>
-      </c>
-      <c r="E12">
-        <v>-6.5214278554962271E-2</v>
-      </c>
-      <c r="F12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="G12">
-        <v>-5.8198141439597131E-2</v>
-      </c>
-      <c r="H12">
-        <v>-6.8221194461547272E-2</v>
-      </c>
-      <c r="I12">
-        <v>-5.589283924454827E-2</v>
-      </c>
-      <c r="J12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="K12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="L12">
-        <v>-6.7920502870888855E-2</v>
-      </c>
-      <c r="M12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="N12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O12">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0.89811355861851783</v>
-      </c>
-      <c r="C13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D13">
-        <v>-6.2211058153348583E-2</v>
-      </c>
-      <c r="E13">
-        <v>-6.9324573833140266E-2</v>
-      </c>
-      <c r="F13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G13">
-        <v>-6.3313152131907788E-2</v>
-      </c>
-      <c r="H13">
-        <v>-6.8823622024704087E-2</v>
-      </c>
-      <c r="I13">
-        <v>-6.3012581046846261E-2</v>
-      </c>
-      <c r="J13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="K13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="L13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O13">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0.28070477588246773</v>
-      </c>
-      <c r="C14">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D14">
-        <v>-6.9227082802929038E-2</v>
-      </c>
-      <c r="E14">
-        <v>-3.4632261542838917E-2</v>
-      </c>
-      <c r="F14">
-        <v>-6.398544321806697E-2</v>
-      </c>
-      <c r="G14">
-        <v>-4.3228550462012898E-2</v>
-      </c>
-      <c r="H14">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="I14">
-        <v>-1.9746005121830539E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.19474188669072831</v>
-      </c>
-      <c r="K14">
-        <v>8.1732137241100677E-2</v>
-      </c>
-      <c r="L14">
-        <v>2.6904587183442671E-2</v>
-      </c>
-      <c r="M14">
-        <v>-6.7549758135773241E-2</v>
-      </c>
-      <c r="N14">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O14">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.87554340808333009</v>
-      </c>
-      <c r="C15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="D15">
-        <v>-6.1284953873082582E-2</v>
-      </c>
-      <c r="E15">
-        <v>-6.4197477725648655E-2</v>
-      </c>
-      <c r="F15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="G15">
-        <v>-5.6765520308755993E-2</v>
-      </c>
-      <c r="H15">
-        <v>-6.8516047576005309E-2</v>
-      </c>
-      <c r="I15">
-        <v>-5.4857315026040368E-2</v>
-      </c>
-      <c r="J15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="K15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="L15">
-        <v>-6.9922093573795779E-2</v>
-      </c>
-      <c r="M15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="N15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="O15">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>0.52985530874261233</v>
-      </c>
-      <c r="C16">
-        <v>-4.2286529447727962E-2</v>
-      </c>
-      <c r="D16">
-        <v>5.6246178928061788E-2</v>
-      </c>
-      <c r="E16">
-        <v>1.7220297534134489E-2</v>
-      </c>
-      <c r="F16">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G16">
-        <v>-8.6610963929081332E-3</v>
-      </c>
-      <c r="H16">
-        <v>-4.2082738944365462E-2</v>
-      </c>
-      <c r="I16">
-        <v>-2.3232117383330021E-2</v>
-      </c>
-      <c r="J16">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="K16">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="L16">
-        <v>-5.8487874465050042E-2</v>
-      </c>
-      <c r="M16">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N16">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O16">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>0.55958152958152962</v>
-      </c>
-      <c r="C17">
-        <v>-3.7287157287157292E-2</v>
-      </c>
-      <c r="D17">
-        <v>5.2611832611832533E-2</v>
-      </c>
-      <c r="E17">
-        <v>1.1702741702741701E-2</v>
-      </c>
-      <c r="F17">
-        <v>-6.4761904761904937E-2</v>
-      </c>
-      <c r="G17">
-        <v>2.1803751803751929E-2</v>
-      </c>
-      <c r="H17">
-        <v>-6.6378066378066369E-2</v>
-      </c>
-      <c r="I17">
-        <v>-6.6681096681096785E-2</v>
-      </c>
-      <c r="J17">
-        <v>-5.5064935064935178E-2</v>
-      </c>
-      <c r="K17">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="L17">
-        <v>-6.9812409812409867E-2</v>
-      </c>
-      <c r="M17">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="N17">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O17">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.59090249248769677</v>
-      </c>
-      <c r="C18">
-        <v>-5.008927664145707E-2</v>
-      </c>
-      <c r="D18">
-        <v>7.6117409670909617E-2</v>
-      </c>
-      <c r="E18">
-        <v>1.260760375687687E-2</v>
-      </c>
-      <c r="F18">
-        <v>-6.6144555576524419E-2</v>
-      </c>
-      <c r="G18">
-        <v>-8.6300753407759744E-3</v>
-      </c>
-      <c r="H18">
-        <v>-6.7160712471149006E-2</v>
-      </c>
-      <c r="I18">
-        <v>-6.0555692656089698E-2</v>
-      </c>
-      <c r="J18">
-        <v>-7.0310798844485073E-2</v>
-      </c>
-      <c r="K18">
-        <v>-7.1428571428572063E-2</v>
-      </c>
-      <c r="L18">
-        <v>-7.1428571428572063E-2</v>
-      </c>
-      <c r="M18">
-        <v>-7.1022108670722089E-2</v>
-      </c>
-      <c r="N18">
-        <v>-7.1428571428572063E-2</v>
-      </c>
-      <c r="O18">
-        <v>-7.1428571428572063E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.74564083731178843</v>
-      </c>
-      <c r="C19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D19">
-        <v>2.5435181784796351E-2</v>
-      </c>
-      <c r="E19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="F19">
-        <v>-5.5695923613661193E-2</v>
-      </c>
-      <c r="G19">
-        <v>-4.0066103562247317E-2</v>
-      </c>
-      <c r="H19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="I19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="J19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="K19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="L19">
-        <v>-5.7443995593095737E-2</v>
-      </c>
-      <c r="M19">
-        <v>-7.0708777084098395E-2</v>
-      </c>
-      <c r="N19">
-        <v>-4.7161219243481337E-2</v>
-      </c>
-      <c r="O19">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.2286929352542959</v>
-      </c>
-      <c r="C20">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="D20">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="E20">
-        <v>-4.1760689695076347E-2</v>
-      </c>
-      <c r="F20">
-        <v>-6.5454492854250021E-2</v>
-      </c>
-      <c r="G20">
-        <v>-3.5280333275473232E-2</v>
-      </c>
-      <c r="H20">
-        <v>-5.796158074408405E-2</v>
-      </c>
-      <c r="I20">
-        <v>-3.5887866689811067E-2</v>
-      </c>
-      <c r="J20">
-        <v>0.3621477752704968</v>
-      </c>
-      <c r="K20">
-        <v>-1.7256841983452179E-2</v>
-      </c>
-      <c r="L20">
-        <v>1.7980096048139591E-2</v>
-      </c>
-      <c r="M20">
-        <v>-6.9504715616502025E-2</v>
-      </c>
-      <c r="N20">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="O20">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.35114806017418809</v>
-      </c>
-      <c r="C21">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="D21">
-        <v>-6.3397805678090988E-2</v>
-      </c>
-      <c r="E21">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="F21">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="G21">
-        <v>-9.7839610903744673E-3</v>
-      </c>
-      <c r="H21">
-        <v>-5.4349055536704209E-2</v>
-      </c>
-      <c r="I21">
-        <v>-1.736228933378604E-2</v>
-      </c>
-      <c r="J21">
-        <v>3.3763148965048978E-2</v>
-      </c>
-      <c r="K21">
-        <v>0.19494401085849999</v>
-      </c>
-      <c r="L21">
-        <v>-6.3906797873545156E-3</v>
-      </c>
-      <c r="M21">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="N21">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="O21">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.70689055159213565</v>
-      </c>
-      <c r="C22">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="D22">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="E22">
-        <v>-2.3621019662432251E-2</v>
-      </c>
-      <c r="F22">
-        <v>-5.904529899657749E-2</v>
-      </c>
-      <c r="G22">
-        <v>-8.5986891711613122E-3</v>
-      </c>
-      <c r="H22">
-        <v>-4.7372542195927722E-2</v>
-      </c>
-      <c r="I22">
-        <v>-3.8135838988457439E-2</v>
-      </c>
-      <c r="J22">
-        <v>-6.1278348123658337E-2</v>
-      </c>
-      <c r="K22">
-        <v>-5.1432631517892922E-2</v>
-      </c>
-      <c r="L22">
-        <v>-6.0263325793167087E-2</v>
-      </c>
-      <c r="M22">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="N22">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="O22">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.85207142857142859</v>
-      </c>
-      <c r="C23">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D23">
-        <v>-6.4028571428571462E-2</v>
-      </c>
-      <c r="E23">
-        <v>-5.4828571428571553E-2</v>
-      </c>
-      <c r="F23">
-        <v>-6.5028571428571436E-2</v>
-      </c>
-      <c r="G23">
-        <v>-3.6428571428571338E-2</v>
-      </c>
-      <c r="H23">
-        <v>-6.7928571428571435E-2</v>
-      </c>
-      <c r="I23">
-        <v>-6.5928571428571461E-2</v>
-      </c>
-      <c r="J23">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="K23">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="L23">
-        <v>-6.932857142857124E-2</v>
-      </c>
-      <c r="M23">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="N23">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O23">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0.25158922792417909</v>
-      </c>
-      <c r="C24">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D24">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E24">
-        <v>-6.6675335182617021E-2</v>
-      </c>
-      <c r="F24">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G24">
-        <v>-5.5348474341193089E-2</v>
-      </c>
-      <c r="H24">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="I24">
-        <v>1.412968099861284E-2</v>
-      </c>
-      <c r="J24">
-        <v>0.2232720758206195</v>
-      </c>
-      <c r="K24">
-        <v>0.19384246417013401</v>
-      </c>
-      <c r="L24">
-        <v>-7.0012713823393621E-2</v>
-      </c>
-      <c r="M24">
-        <v>-6.2225496994914753E-2</v>
-      </c>
-      <c r="N24">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O24">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0.1268282909236626</v>
-      </c>
-      <c r="C25">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D25">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E25">
-        <v>-5.7002604688439269E-2</v>
-      </c>
-      <c r="F25">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="G25">
-        <v>-6.4415948707673906E-2</v>
-      </c>
-      <c r="H25">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="I25">
-        <v>3.4462031656982542E-2</v>
-      </c>
-      <c r="J25">
-        <v>0.2244039270687237</v>
-      </c>
-      <c r="K25">
-        <v>0.2516529753556403</v>
-      </c>
-      <c r="L25">
-        <v>-4.0072129833700662E-2</v>
-      </c>
-      <c r="M25">
-        <v>-6.6920456822280219E-2</v>
-      </c>
-      <c r="N25">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O25">
-        <v>-5.179322781005806E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.86693799066028565</v>
-      </c>
-      <c r="C26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E26">
-        <v>-6.1915364263304823E-2</v>
-      </c>
-      <c r="F26">
-        <v>-6.5963537525120561E-2</v>
-      </c>
-      <c r="G26">
-        <v>-4.6026284210678788E-2</v>
-      </c>
-      <c r="H26">
-        <v>-6.9404484797663882E-2</v>
-      </c>
-      <c r="I26">
-        <v>-5.5843104370581577E-2</v>
-      </c>
-      <c r="J26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="K26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="L26">
-        <v>-6.77852154929377E-2</v>
-      </c>
-      <c r="M26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O26">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.27915846277255152</v>
-      </c>
-      <c r="C27">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D27">
-        <v>-5.7033471887989587E-2</v>
-      </c>
-      <c r="E27">
-        <v>-2.5588857288704438E-2</v>
-      </c>
-      <c r="F27">
-        <v>-6.1423466783344358E-2</v>
-      </c>
-      <c r="G27">
-        <v>-2.7018157952308129E-2</v>
-      </c>
-      <c r="H27">
-        <v>-4.9784875665427039E-2</v>
-      </c>
-      <c r="I27">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.32897980018960099</v>
-      </c>
-      <c r="K27">
-        <v>3.362502734631366E-2</v>
-      </c>
-      <c r="L27">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M27">
-        <v>-6.7855319769561717E-2</v>
-      </c>
-      <c r="N27">
-        <v>-6.7344855246846025E-2</v>
-      </c>
-      <c r="O27">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.30273556231003018</v>
-      </c>
-      <c r="C28">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D28">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="E28">
-        <v>-2.847011144883501E-2</v>
-      </c>
-      <c r="F28">
-        <v>-6.6261398176291814E-2</v>
-      </c>
-      <c r="G28">
-        <v>-3.2320162107396411E-2</v>
-      </c>
-      <c r="H28">
-        <v>-4.366767983789268E-2</v>
-      </c>
-      <c r="I28">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="J28">
-        <v>0.31094224924012148</v>
-      </c>
-      <c r="K28">
-        <v>3.343465045592689E-2</v>
-      </c>
-      <c r="L28">
-        <v>-5.7142857142857183E-2</v>
-      </c>
-      <c r="M28">
-        <v>-6.6565349544073102E-2</v>
-      </c>
-      <c r="N28">
-        <v>-6.6970618034447968E-2</v>
-      </c>
-      <c r="O28">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>0.5981843514607913</v>
-      </c>
-      <c r="C29">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D29">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="E29">
-        <v>-5.5173364682660597E-2</v>
-      </c>
-      <c r="F29">
-        <v>-6.2386612676158547E-2</v>
-      </c>
-      <c r="G29">
-        <v>-3.9832513316207567E-2</v>
-      </c>
-      <c r="H29">
-        <v>-2.4796447076239889E-2</v>
-      </c>
-      <c r="I29">
-        <v>-6.6958389573445992E-2</v>
-      </c>
-      <c r="J29">
-        <v>9.6711223349443293E-2</v>
-      </c>
-      <c r="K29">
-        <v>-3.6683067009187248E-2</v>
-      </c>
-      <c r="L29">
-        <v>-5.4970174598336821E-2</v>
-      </c>
-      <c r="M29">
-        <v>-6.8380720163713229E-2</v>
-      </c>
-      <c r="N29">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O29">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>0.6351394399235466</v>
-      </c>
-      <c r="C30">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="D30">
-        <v>-6.9300049231125996E-2</v>
-      </c>
-      <c r="E30">
-        <v>-6.6766094234166781E-2</v>
-      </c>
-      <c r="F30">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="G30">
-        <v>-4.7508036257276398E-2</v>
-      </c>
-      <c r="H30">
-        <v>-6.1292751440734761E-2</v>
-      </c>
-      <c r="I30">
-        <v>-7.0313631229909621E-2</v>
-      </c>
-      <c r="J30">
-        <v>0.12885523153108769</v>
-      </c>
-      <c r="K30">
-        <v>-2.1965769887927141E-2</v>
-      </c>
-      <c r="L30">
-        <v>-6.9705482030639504E-2</v>
-      </c>
-      <c r="M30">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="N30">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="O30">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>0.6839735894357748</v>
-      </c>
-      <c r="C31">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="D31">
-        <v>-6.9927971188474783E-2</v>
-      </c>
-      <c r="E31">
-        <v>-6.5026010404161227E-2</v>
-      </c>
-      <c r="F31">
-        <v>-6.1424569827930757E-2</v>
-      </c>
-      <c r="G31">
-        <v>-4.7919167667066519E-2</v>
-      </c>
-      <c r="H31">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="I31">
-        <v>-6.6726690676269892E-2</v>
-      </c>
-      <c r="J31">
-        <v>9.0236094437775471E-2</v>
-      </c>
-      <c r="K31">
-        <v>-3.5914365746298013E-2</v>
-      </c>
-      <c r="L31">
-        <v>-7.0128051220487819E-2</v>
-      </c>
-      <c r="M31">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="N31">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="O31">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>0.29547052619242958</v>
-      </c>
-      <c r="C32">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D32">
-        <v>-6.8864994726356155E-2</v>
-      </c>
-      <c r="E32">
-        <v>-6.3430212117660548E-2</v>
-      </c>
-      <c r="F32">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="G32">
-        <v>-5.4816594398218357E-2</v>
-      </c>
-      <c r="H32">
-        <v>-6.6609047228407006E-2</v>
-      </c>
-      <c r="I32">
-        <v>-5.5944568147193091E-2</v>
-      </c>
-      <c r="J32">
-        <v>0.40590941052384882</v>
-      </c>
-      <c r="K32">
-        <v>3.1114496660026081E-2</v>
-      </c>
-      <c r="L32">
-        <v>-6.7942107113559011E-2</v>
-      </c>
-      <c r="M32">
-        <v>-6.9172623930622068E-2</v>
-      </c>
-      <c r="N32">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O32">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>0.61363535124059032</v>
-      </c>
-      <c r="C33">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="D33">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="E33">
-        <v>-6.7478878049504198E-2</v>
-      </c>
-      <c r="F33">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="G33">
-        <v>-5.6461312307897638E-2</v>
-      </c>
-      <c r="H33">
-        <v>-6.9661603337936071E-2</v>
-      </c>
-      <c r="I33">
-        <v>-6.9765542637385047E-2</v>
-      </c>
-      <c r="J33">
-        <v>0.15775758385674241</v>
-      </c>
-      <c r="K33">
-        <v>-1.2391049341469959E-2</v>
-      </c>
-      <c r="L33">
-        <v>-6.7063120851707916E-2</v>
-      </c>
-      <c r="M33">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="N33">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="O33">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>0.33387717475600281</v>
-      </c>
-      <c r="C34">
-        <v>-4.8689659208967173E-2</v>
-      </c>
-      <c r="D34">
-        <v>-6.9994585973281245E-2</v>
-      </c>
-      <c r="E34">
-        <v>-6.763875272530423E-2</v>
-      </c>
-      <c r="F34">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.1521091028967019</v>
+      </c>
+      <c r="C63">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D63">
+        <v>-6.8217976465192467E-2</v>
+      </c>
+      <c r="E63">
+        <v>-3.9422952887385593E-2</v>
+      </c>
+      <c r="F63">
+        <v>-5.8586191575054819E-2</v>
+      </c>
+      <c r="G63">
+        <v>-2.9791167997247951E-2</v>
+      </c>
+      <c r="H63">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I63">
+        <v>-6.310109074230677E-2</v>
+      </c>
+      <c r="J63">
+        <v>0.48500766816207758</v>
+      </c>
+      <c r="K63">
+        <v>-7.954822342301866E-4</v>
+      </c>
+      <c r="L63">
+        <v>-2.8888188163797901E-2</v>
+      </c>
+      <c r="M63">
+        <v>-6.2599435279278762E-2</v>
+      </c>
+      <c r="N63">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O63">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.1051087789635044</v>
+      </c>
+      <c r="C64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="E64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="F64">
+        <v>-5.9975826896999013E-2</v>
+      </c>
+      <c r="G64">
+        <v>-3.3768645716644001E-2</v>
+      </c>
+      <c r="H64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I64">
+        <v>-5.7602735687754203E-2</v>
+      </c>
+      <c r="J64">
+        <v>0.53174930723424318</v>
+      </c>
+      <c r="K64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="L64">
+        <v>7.4361771121985554E-2</v>
+      </c>
+      <c r="M64">
+        <v>-5.9872649018336138E-2</v>
+      </c>
+      <c r="N64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.43707941778080778</v>
+      </c>
+      <c r="C65">
+        <v>-4.3310704651232143E-2</v>
+      </c>
+      <c r="D65">
         <v>-7.1428571428571702E-2</v>
       </c>
-      <c r="G34">
-        <v>-5.5040166225252908E-2</v>
-      </c>
-      <c r="H34">
-        <v>-6.8150890387907975E-2</v>
-      </c>
-      <c r="I34">
-        <v>-6.4463499217161269E-2</v>
-      </c>
-      <c r="J34">
-        <v>0.35477239139023409</v>
-      </c>
-      <c r="K34">
-        <v>3.9500446291391558E-2</v>
-      </c>
-      <c r="L34">
-        <v>-7.071157870092637E-2</v>
-      </c>
-      <c r="M34">
-        <v>-6.917516571311523E-2</v>
-      </c>
-      <c r="N34">
+      <c r="E65">
+        <v>-5.9704147274182932E-2</v>
+      </c>
+      <c r="F65">
         <v>-7.1428571428571702E-2</v>
       </c>
-      <c r="O34">
+      <c r="G65">
+        <v>-5.6383956363205402E-2</v>
+      </c>
+      <c r="H65">
         <v>-7.1428571428571702E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>0.52989169262423852</v>
-      </c>
-      <c r="C35">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="D35">
-        <v>-6.9128111336553472E-2</v>
-      </c>
-      <c r="E35">
-        <v>-6.2526791072500532E-2</v>
-      </c>
-      <c r="F35">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="G35">
-        <v>-4.4223130340354279E-2</v>
-      </c>
-      <c r="H35">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="I35">
-        <v>-4.1322550224331123E-2</v>
-      </c>
-      <c r="J35">
-        <v>0.10100591546880749</v>
-      </c>
-      <c r="K35">
-        <v>3.1992112708255277E-2</v>
-      </c>
-      <c r="L35">
-        <v>-5.6825650844455018E-2</v>
-      </c>
-      <c r="M35">
-        <v>-6.8327951304547038E-2</v>
-      </c>
-      <c r="N35">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="O35">
-        <v>-3.4821249964279093E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>0.26264873403962402</v>
-      </c>
-      <c r="C36">
-        <v>-5.7428368527079922E-2</v>
-      </c>
-      <c r="D36">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E36">
-        <v>-6.4529920723488496E-2</v>
-      </c>
-      <c r="F36">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="G36">
-        <v>-4.5355729793185133E-2</v>
-      </c>
-      <c r="H36">
-        <v>-6.8486499804345E-2</v>
-      </c>
-      <c r="I36">
-        <v>-6.4022666995173644E-2</v>
-      </c>
-      <c r="J36">
-        <v>0.4288250554355863</v>
-      </c>
-      <c r="K36">
-        <v>2.7891708575486941E-2</v>
-      </c>
-      <c r="L36">
-        <v>-6.6558935636748043E-2</v>
-      </c>
-      <c r="M36">
-        <v>-6.7269090856389144E-2</v>
-      </c>
-      <c r="N36">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O36">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>39</v>
-      </c>
-      <c r="B37">
-        <v>0.19436729734421071</v>
-      </c>
-      <c r="C37">
+      <c r="I65">
+        <v>-6.2505558355320026E-2</v>
+      </c>
+      <c r="J65">
+        <v>0.27013606853822641</v>
+      </c>
+      <c r="K65">
+        <v>1.1057421516022421E-2</v>
+      </c>
+      <c r="L65">
+        <v>-6.779711261969025E-2</v>
+      </c>
+      <c r="M65">
         <v>-7.1428571428571702E-2</v>
       </c>
-      <c r="D37">
+      <c r="N65">
         <v>-7.1428571428571702E-2</v>
       </c>
-      <c r="E37">
-        <v>-6.0189203263322742E-2</v>
-      </c>
-      <c r="F37">
+      <c r="O65">
         <v>-7.1428571428571702E-2</v>
       </c>
-      <c r="G37">
-        <v>-6.6365792975756829E-2</v>
-      </c>
-      <c r="H37">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="I37">
-        <v>-6.2518081351617669E-2</v>
-      </c>
-      <c r="J37">
-        <v>0.54653416652201559</v>
-      </c>
-      <c r="K37">
-        <v>1.677949430075452E-3</v>
-      </c>
-      <c r="L37">
-        <v>-5.9682925418041273E-2</v>
-      </c>
-      <c r="M37">
-        <v>-6.5251981716137678E-2</v>
-      </c>
-      <c r="N37">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="O37">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>9.8095624574269666E-2</v>
-      </c>
-      <c r="C38">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D38">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="E38">
-        <v>-5.2457281989593721E-2</v>
-      </c>
-      <c r="F38">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="G38">
-        <v>-6.686328787373691E-2</v>
-      </c>
-      <c r="H38">
-        <v>-6.9501007260974343E-2</v>
-      </c>
-      <c r="I38">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="J38">
-        <v>0.64085711387121602</v>
-      </c>
-      <c r="K38">
-        <v>-3.5580225800369071E-3</v>
-      </c>
-      <c r="L38">
-        <v>-5.3471789446223307E-2</v>
-      </c>
-      <c r="M38">
-        <v>-6.4529920723488371E-2</v>
-      </c>
-      <c r="N38">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O38">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>0.12556214461027251</v>
-      </c>
-      <c r="C39">
-        <v>-7.1428571428570745E-2</v>
-      </c>
-      <c r="D39">
-        <v>-6.6733234751588655E-2</v>
-      </c>
-      <c r="E39">
-        <v>-1.8499321615317161E-2</v>
-      </c>
-      <c r="F39">
-        <v>-4.2296141591840378E-2</v>
-      </c>
-      <c r="G39">
-        <v>-3.5893409759592057E-2</v>
-      </c>
-      <c r="H39">
-        <v>-5.2327088129029559E-2</v>
-      </c>
-      <c r="I39">
-        <v>-6.9401039681692131E-2</v>
-      </c>
-      <c r="J39">
-        <v>0.39938564263609688</v>
-      </c>
-      <c r="K39">
-        <v>3.2722533042670282E-2</v>
-      </c>
-      <c r="L39">
-        <v>8.1787276857179826E-3</v>
-      </c>
-      <c r="M39">
-        <v>-6.6413098159976092E-2</v>
-      </c>
-      <c r="N39">
-        <v>-7.1428571428570745E-2</v>
-      </c>
-      <c r="O39">
-        <v>-7.1428571428570745E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40">
-        <v>5.9644516868851562E-2</v>
-      </c>
-      <c r="C40">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D40">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E40">
-        <v>-1.608425372683954E-2</v>
-      </c>
-      <c r="F40">
-        <v>-6.2028486933430022E-2</v>
-      </c>
-      <c r="G40">
-        <v>-4.7664312873438357E-2</v>
-      </c>
-      <c r="H40">
-        <v>-6.3401532983282188E-2</v>
-      </c>
-      <c r="I40">
-        <v>-1.4922445530810629E-2</v>
-      </c>
-      <c r="J40">
-        <v>0.56070070613796841</v>
-      </c>
-      <c r="K40">
-        <v>5.5676262900597306E-3</v>
-      </c>
-      <c r="L40">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M40">
-        <v>-6.4668960106222612E-2</v>
-      </c>
-      <c r="N40">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O40">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41">
-        <v>0.15304644667425241</v>
-      </c>
-      <c r="C41">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D41">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E41">
-        <v>-5.2239577945589234E-3</v>
-      </c>
-      <c r="F41">
-        <v>-6.1601324092272799E-2</v>
-      </c>
-      <c r="G41">
-        <v>-3.6153925726699281E-2</v>
-      </c>
-      <c r="H41">
-        <v>-5.7049756904934523E-2</v>
-      </c>
-      <c r="I41">
-        <v>-5.580842039929676E-2</v>
-      </c>
-      <c r="J41">
-        <v>0.39148650046550099</v>
-      </c>
-      <c r="K41">
-        <v>-3.7705596358746318E-2</v>
-      </c>
-      <c r="L41">
-        <v>6.1290989965863081E-2</v>
-      </c>
-      <c r="M41">
-        <v>-6.656667011482377E-2</v>
-      </c>
-      <c r="N41">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O41">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>0.55171562218542092</v>
-      </c>
-      <c r="C42">
-        <v>-4.4379557802376707E-2</v>
-      </c>
-      <c r="D42">
-        <v>-7.0310003195909229E-2</v>
-      </c>
-      <c r="E42">
-        <v>-6.2886777651878265E-2</v>
-      </c>
-      <c r="F42">
-        <v>-6.3903657863389363E-2</v>
-      </c>
-      <c r="G42">
-        <v>-2.058456085301727E-2</v>
-      </c>
-      <c r="H42">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I42">
-        <v>-6.6039106307562601E-2</v>
-      </c>
-      <c r="J42">
-        <v>9.1170574392050924E-2</v>
-      </c>
-      <c r="K42">
-        <v>4.0021499753043289E-2</v>
-      </c>
-      <c r="L42">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="M42">
-        <v>-6.9089746942095909E-2</v>
-      </c>
-      <c r="N42">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O42">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>0.48834026158369631</v>
-      </c>
-      <c r="C43">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="D43">
-        <v>-6.8893845685897376E-2</v>
-      </c>
-      <c r="E43">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="F43">
-        <v>-5.4496603467505053E-2</v>
-      </c>
-      <c r="G43">
-        <v>-2.286322619892547E-2</v>
-      </c>
-      <c r="H43">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="I43">
-        <v>-6.3621616141133971E-2</v>
-      </c>
-      <c r="J43">
-        <v>0.18457872858156721</v>
-      </c>
-      <c r="K43">
-        <v>3.056879245665579E-2</v>
-      </c>
-      <c r="L43">
-        <v>-6.9400790834432194E-2</v>
-      </c>
-      <c r="M43">
-        <v>-6.7068843151171356E-2</v>
-      </c>
-      <c r="N43">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="O43">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>0.45849123116242252</v>
-      </c>
-      <c r="C44">
-        <v>-2.3515760406567731E-2</v>
-      </c>
-      <c r="D44">
-        <v>-6.84468728885749E-2</v>
-      </c>
-      <c r="E44">
-        <v>-6.2483475808582961E-2</v>
-      </c>
-      <c r="F44">
-        <v>-6.5156722775475726E-2</v>
-      </c>
-      <c r="G44">
-        <v>-3.9966510972062337E-2</v>
-      </c>
-      <c r="H44">
-        <v>-7.1428571428570509E-2</v>
-      </c>
-      <c r="I44">
-        <v>-6.4745454011338396E-2</v>
-      </c>
-      <c r="J44">
-        <v>0.18972709379865549</v>
-      </c>
-      <c r="K44">
-        <v>2.347169589612624E-2</v>
-      </c>
-      <c r="L44">
-        <v>-7.0400399518227089E-2</v>
-      </c>
-      <c r="M44">
-        <v>-6.268911019065164E-2</v>
-      </c>
-      <c r="N44">
-        <v>-7.1428571428570509E-2</v>
-      </c>
-      <c r="O44">
-        <v>-7.1428571428570509E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>0.46633486509457017</v>
-      </c>
-      <c r="C45">
-        <v>-6.336161569599158E-2</v>
-      </c>
-      <c r="D45">
-        <v>-6.8201789135539648E-2</v>
-      </c>
-      <c r="E45">
-        <v>-4.2992552471225888E-2</v>
-      </c>
-      <c r="F45">
-        <v>-5.5899681643354453E-2</v>
-      </c>
-      <c r="G45">
-        <v>6.62138607585816E-2</v>
-      </c>
-      <c r="H45">
-        <v>-6.1042365922874438E-2</v>
-      </c>
-      <c r="I45">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="J45">
-        <v>8.6986271769975962E-2</v>
-      </c>
-      <c r="K45">
-        <v>2.283236577881678E-3</v>
-      </c>
-      <c r="L45">
-        <v>-6.0336507296273843E-2</v>
-      </c>
-      <c r="M45">
-        <v>-6.890764776214045E-2</v>
-      </c>
-      <c r="N45">
-        <v>-5.8218931416471463E-2</v>
-      </c>
-      <c r="O45">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>0.23003739715781599</v>
-      </c>
-      <c r="C46">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D46">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="E46">
-        <v>-2.3470456245325479E-2</v>
-      </c>
-      <c r="F46">
-        <v>-5.6035901271503409E-2</v>
-      </c>
-      <c r="G46">
-        <v>-1.509349289453994E-2</v>
-      </c>
-      <c r="H46">
-        <v>-4.273747195213147E-2</v>
-      </c>
-      <c r="I46">
-        <v>-6.4098728496634172E-2</v>
-      </c>
-      <c r="J46">
-        <v>0.28647718773373232</v>
-      </c>
-      <c r="K46">
-        <v>-7.5542258788332192E-3</v>
-      </c>
-      <c r="L46">
-        <v>4.4801795063575338E-2</v>
-      </c>
-      <c r="M46">
-        <v>-6.6611817501869869E-2</v>
-      </c>
-      <c r="N46">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O46">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>0.12797255976805719</v>
-      </c>
-      <c r="C47">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="D47">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="E47">
-        <v>-3.6050951377556671E-2</v>
-      </c>
-      <c r="F47">
-        <v>-6.6216194806634973E-2</v>
-      </c>
-      <c r="G47">
-        <v>-5.0689966571079742E-2</v>
-      </c>
-      <c r="H47">
-        <v>-6.7768817630190478E-2</v>
-      </c>
-      <c r="I47">
-        <v>-5.8896687209873219E-2</v>
-      </c>
-      <c r="J47">
-        <v>0.41653860168887352</v>
-      </c>
-      <c r="K47">
-        <v>8.6051743532058675E-2</v>
-      </c>
-      <c r="L47">
-        <v>-1.116937847557688E-3</v>
-      </c>
-      <c r="M47">
-        <v>-6.4109063831809435E-2</v>
-      </c>
-      <c r="N47">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="O47">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48">
-        <v>0.18672730814763769</v>
-      </c>
-      <c r="C48">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D48">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E48">
-        <v>-3.3874810807570467E-2</v>
-      </c>
-      <c r="F48">
-        <v>-5.8945617479132517E-2</v>
-      </c>
-      <c r="G48">
-        <v>-1.6356715769282461E-2</v>
-      </c>
-      <c r="H48">
-        <v>-5.8945617479132517E-2</v>
-      </c>
-      <c r="I48">
-        <v>-5.705743957081387E-2</v>
-      </c>
-      <c r="J48">
-        <v>0.3506840898532918</v>
-      </c>
-      <c r="K48">
-        <v>2.2350931351246221E-2</v>
-      </c>
-      <c r="L48">
-        <v>1.353943444576013E-2</v>
-      </c>
-      <c r="M48">
-        <v>-6.7337519293881223E-2</v>
-      </c>
-      <c r="N48">
-        <v>-6.6498329112406399E-2</v>
-      </c>
-      <c r="O48">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49">
-        <v>0.1613958560523451</v>
-      </c>
-      <c r="C49">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="D49">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="E49">
-        <v>-1.5485278080697461E-2</v>
-      </c>
-      <c r="F49">
-        <v>-5.5616139585604678E-2</v>
-      </c>
-      <c r="G49">
-        <v>-4.4056706652125972E-2</v>
-      </c>
-      <c r="H49">
-        <v>-6.6848418756815256E-2</v>
-      </c>
-      <c r="I49">
-        <v>-6.3249727371864198E-2</v>
-      </c>
-      <c r="J49">
-        <v>0.48844056706652178</v>
-      </c>
-      <c r="K49">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="L49">
-        <v>2.3991275899673301E-2</v>
-      </c>
-      <c r="M49">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="N49">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="O49">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>52</v>
-      </c>
-      <c r="B50">
-        <v>0.2021683673469386</v>
-      </c>
-      <c r="C50">
-        <v>-5.8460884353741541E-2</v>
-      </c>
-      <c r="D50">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E50">
-        <v>-4.7300170068027163E-2</v>
-      </c>
-      <c r="F50">
-        <v>-6.5582482993197314E-2</v>
-      </c>
-      <c r="G50">
-        <v>-5.9098639455782268E-2</v>
-      </c>
-      <c r="H50">
-        <v>-6.898384353741506E-2</v>
-      </c>
-      <c r="I50">
-        <v>-6.3988095238095358E-2</v>
-      </c>
-      <c r="J50">
-        <v>0.43261054421768708</v>
-      </c>
-      <c r="K50">
-        <v>2.0408163265306051E-2</v>
-      </c>
-      <c r="L50">
-        <v>-1.0735544217686979E-2</v>
-      </c>
-      <c r="M50">
-        <v>-6.67517006802721E-2</v>
-      </c>
-      <c r="N50">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O50">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>0.1521091028967019</v>
-      </c>
-      <c r="C51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D51">
-        <v>-6.8217976465192467E-2</v>
-      </c>
-      <c r="E51">
-        <v>-3.9422952887385593E-2</v>
-      </c>
-      <c r="F51">
-        <v>-5.8586191575054819E-2</v>
-      </c>
-      <c r="G51">
-        <v>-2.9791167997247951E-2</v>
-      </c>
-      <c r="H51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I51">
-        <v>-6.310109074230677E-2</v>
-      </c>
-      <c r="J51">
-        <v>0.48500766816207758</v>
-      </c>
-      <c r="K51">
-        <v>-7.954822342301866E-4</v>
-      </c>
-      <c r="L51">
-        <v>-2.8888188163797901E-2</v>
-      </c>
-      <c r="M51">
-        <v>-6.2599435279278762E-2</v>
-      </c>
-      <c r="N51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>0.43707941778080778</v>
-      </c>
-      <c r="C52">
-        <v>-4.3310704651232143E-2</v>
-      </c>
-      <c r="D52">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="E52">
-        <v>-5.9704147274182932E-2</v>
-      </c>
-      <c r="F52">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="G52">
-        <v>-5.6383956363205402E-2</v>
-      </c>
-      <c r="H52">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="I52">
-        <v>-6.2505558355320026E-2</v>
-      </c>
-      <c r="J52">
-        <v>0.27013606853822641</v>
-      </c>
-      <c r="K52">
-        <v>1.1057421516022421E-2</v>
-      </c>
-      <c r="L52">
-        <v>-6.779711261969025E-2</v>
-      </c>
-      <c r="M52">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="N52">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="O52">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>56</v>
-      </c>
-      <c r="B53">
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>0.24459484574402179</v>
       </c>
-      <c r="C53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E53">
+      <c r="C66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E66">
         <v>-5.8310618262916752E-2</v>
       </c>
-      <c r="F53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G53">
+      <c r="F66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G66">
         <v>-5.1372196753810023E-2</v>
       </c>
-      <c r="H53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="I53">
+      <c r="H66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="I66">
         <v>-6.2863957378267943E-2</v>
       </c>
-      <c r="J53">
+      <c r="J66">
         <v>0.3757743774005699</v>
       </c>
-      <c r="K53">
+      <c r="K66">
         <v>9.6069260314706945E-2</v>
       </c>
-      <c r="L53">
+      <c r="L66">
         <v>-4.3891711064304409E-2</v>
       </c>
-      <c r="M53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O53">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>57</v>
-      </c>
-      <c r="B54">
+      <c r="M66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>0.20347139612847401</v>
       </c>
-      <c r="C54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E54">
+      <c r="C67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E67">
         <v>-5.7261814642586811E-2</v>
       </c>
-      <c r="F54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G54">
+      <c r="F67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G67">
         <v>-4.7853357845787967E-2</v>
       </c>
-      <c r="H54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="I54">
+      <c r="H67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="I67">
         <v>-5.8883962366173007E-2</v>
       </c>
-      <c r="J54">
+      <c r="J67">
         <v>0.41629717746296102</v>
       </c>
-      <c r="K54">
+      <c r="K67">
         <v>0.1156591326916836</v>
       </c>
-      <c r="L54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O54">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>58</v>
-      </c>
-      <c r="B55">
+      <c r="L67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>0.23628710293351779</v>
       </c>
-      <c r="C55">
+      <c r="C68">
         <v>-7.1428571428572174E-2</v>
       </c>
-      <c r="D55">
+      <c r="D68">
         <v>-6.7985882080658006E-2</v>
       </c>
-      <c r="E55">
+      <c r="E68">
         <v>-3.6090377827924243E-2</v>
       </c>
-      <c r="F55">
+      <c r="F68">
         <v>-6.3429381473124671E-2</v>
       </c>
-      <c r="G55">
+      <c r="G68">
         <v>-3.5786611120755103E-2</v>
       </c>
-      <c r="H55">
+      <c r="H68">
         <v>-6.2720592489730359E-2</v>
       </c>
-      <c r="I55">
+      <c r="I68">
         <v>-3.9735578313950769E-2</v>
       </c>
-      <c r="J55">
+      <c r="J68">
         <v>0.3270120928079609</v>
       </c>
-      <c r="K55">
+      <c r="K68">
         <v>6.1331944685523009E-3</v>
       </c>
-      <c r="L55">
+      <c r="L68">
         <v>1.9600185153039879E-2</v>
       </c>
-      <c r="M55">
+      <c r="M68">
         <v>-6.8998437771220972E-2</v>
       </c>
-      <c r="N55">
+      <c r="N68">
         <v>-7.1428571428572174E-2</v>
       </c>
-      <c r="O55">
+      <c r="O68">
         <v>-7.1428571428572174E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A581F1-BEB2-4065-9E03-B9B7F9AA7F9C}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>-2.4502675663099251E-2</v>
-      </c>
-      <c r="C2">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D2">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E2">
-        <v>-3.8957073057235947E-2</v>
-      </c>
-      <c r="F2">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G2">
-        <v>-6.0129711493718152E-2</v>
-      </c>
-      <c r="H2">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="I2">
-        <v>-3.9466030711959178E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.25888494648673799</v>
-      </c>
-      <c r="K2">
-        <v>0.24025709632387149</v>
-      </c>
-      <c r="L2">
-        <v>5.5258259655651962E-3</v>
-      </c>
-      <c r="M2">
-        <v>-6.6033620288506317E-2</v>
-      </c>
-      <c r="N2">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O2">
-        <v>8.1564099581200464E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>-3.418760636700393E-2</v>
-      </c>
-      <c r="C3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D3">
-        <v>-6.7424166583241588E-2</v>
-      </c>
-      <c r="E3">
-        <v>-4.1295424967464307E-2</v>
-      </c>
-      <c r="F3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="G3">
-        <v>-5.9615577134848358E-2</v>
-      </c>
-      <c r="H3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="I3">
-        <v>-3.5388927820602642E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.22810091100210211</v>
-      </c>
-      <c r="K3">
-        <v>0.28346180798878762</v>
-      </c>
-      <c r="L3">
-        <v>-1.096205826409054E-2</v>
-      </c>
-      <c r="M3">
-        <v>-6.5221743918310357E-2</v>
-      </c>
-      <c r="N3">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O3">
-        <v>8.8247071778956757E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0.1051087789635044</v>
-      </c>
-      <c r="C4">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D4">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="E4">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="F4">
-        <v>-5.9975826896999013E-2</v>
-      </c>
-      <c r="G4">
-        <v>-3.3768645716644001E-2</v>
-      </c>
-      <c r="H4">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I4">
-        <v>-5.7602735687754203E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.53174930723424318</v>
-      </c>
-      <c r="K4">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="L4">
-        <v>7.4361771121985554E-2</v>
-      </c>
-      <c r="M4">
-        <v>-5.9872649018336138E-2</v>
-      </c>
-      <c r="N4">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O4">
-        <v>-7.1428571428571466E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SoftMax_CLR_data.xlsx
+++ b/SoftMax_CLR_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CCE0F-64F6-48A2-9A47-29097DDB4F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09632A9A-BCB1-4F66-81BB-CE60BEE91303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2400" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="1530" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3722,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8F7C4-FBB7-45FD-B9F3-815DE78EB3DC}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5625,1106 +5625,6 @@
         <v>-7.131596133535846E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>9.8095624574269666E-2</v>
-      </c>
-      <c r="C44">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D44">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="E44">
-        <v>-5.2457281989593721E-2</v>
-      </c>
-      <c r="F44">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="G44">
-        <v>-6.686328787373691E-2</v>
-      </c>
-      <c r="H44">
-        <v>-6.9501007260974343E-2</v>
-      </c>
-      <c r="I44">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="J44">
-        <v>0.64085711387121602</v>
-      </c>
-      <c r="K44">
-        <v>-3.5580225800369071E-3</v>
-      </c>
-      <c r="L44">
-        <v>-5.3471789446223307E-2</v>
-      </c>
-      <c r="M44">
-        <v>-6.4529920723488371E-2</v>
-      </c>
-      <c r="N44">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O44">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>0.12556214461027251</v>
-      </c>
-      <c r="C45">
-        <v>-7.1428571428570745E-2</v>
-      </c>
-      <c r="D45">
-        <v>-6.6733234751588655E-2</v>
-      </c>
-      <c r="E45">
-        <v>-1.8499321615317161E-2</v>
-      </c>
-      <c r="F45">
-        <v>-4.2296141591840378E-2</v>
-      </c>
-      <c r="G45">
-        <v>-3.5893409759592057E-2</v>
-      </c>
-      <c r="H45">
-        <v>-5.2327088129029559E-2</v>
-      </c>
-      <c r="I45">
-        <v>-6.9401039681692131E-2</v>
-      </c>
-      <c r="J45">
-        <v>0.39938564263609688</v>
-      </c>
-      <c r="K45">
-        <v>3.2722533042670282E-2</v>
-      </c>
-      <c r="L45">
-        <v>8.1787276857179826E-3</v>
-      </c>
-      <c r="M45">
-        <v>-6.6413098159976092E-2</v>
-      </c>
-      <c r="N45">
-        <v>-7.1428571428570745E-2</v>
-      </c>
-      <c r="O45">
-        <v>-7.1428571428570745E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>0.45157928491261839</v>
-      </c>
-      <c r="C46">
-        <v>-1.286311892372464E-2</v>
-      </c>
-      <c r="D46">
-        <v>-6.9898115352660412E-2</v>
-      </c>
-      <c r="E46">
-        <v>-6.336816942877524E-2</v>
-      </c>
-      <c r="F46">
-        <v>-6.0307257276954039E-2</v>
-      </c>
-      <c r="G46">
-        <v>-3.5411838442141283E-2</v>
-      </c>
-      <c r="H46">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="I46">
-        <v>-4.4186453277362182E-2</v>
-      </c>
-      <c r="J46">
-        <v>0.15181395484425789</v>
-      </c>
-      <c r="K46">
-        <v>3.5397262669990229E-2</v>
-      </c>
-      <c r="L46">
-        <v>-7.0612328188085549E-2</v>
-      </c>
-      <c r="M46">
-        <v>-6.7857507251446347E-2</v>
-      </c>
-      <c r="N46">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="O46">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>0.45288194951116317</v>
-      </c>
-      <c r="C47">
-        <v>-1.341018532029732E-2</v>
-      </c>
-      <c r="D47">
-        <v>-6.7853494819786739E-2</v>
-      </c>
-      <c r="E47">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="F47">
-        <v>-5.95797460965998E-2</v>
-      </c>
-      <c r="G47">
-        <v>-1.3614475412227951E-2</v>
-      </c>
-      <c r="H47">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="I47">
-        <v>-4.364511892601753E-2</v>
-      </c>
-      <c r="J47">
-        <v>0.1340872610535534</v>
-      </c>
-      <c r="K47">
-        <v>3.9705238581643411E-2</v>
-      </c>
-      <c r="L47">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="M47">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="N47">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O47">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>5.9644516868851562E-2</v>
-      </c>
-      <c r="C48">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D48">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E48">
-        <v>-1.608425372683954E-2</v>
-      </c>
-      <c r="F48">
-        <v>-6.2028486933430022E-2</v>
-      </c>
-      <c r="G48">
-        <v>-4.7664312873438357E-2</v>
-      </c>
-      <c r="H48">
-        <v>-6.3401532983282188E-2</v>
-      </c>
-      <c r="I48">
-        <v>-1.4922445530810629E-2</v>
-      </c>
-      <c r="J48">
-        <v>0.56070070613796841</v>
-      </c>
-      <c r="K48">
-        <v>5.5676262900597306E-3</v>
-      </c>
-      <c r="L48">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M48">
-        <v>-6.4668960106222612E-2</v>
-      </c>
-      <c r="N48">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O48">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>0.15304644667425241</v>
-      </c>
-      <c r="C49">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D49">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E49">
-        <v>-5.2239577945589234E-3</v>
-      </c>
-      <c r="F49">
-        <v>-6.1601324092272799E-2</v>
-      </c>
-      <c r="G49">
-        <v>-3.6153925726699281E-2</v>
-      </c>
-      <c r="H49">
-        <v>-5.7049756904934523E-2</v>
-      </c>
-      <c r="I49">
-        <v>-5.580842039929676E-2</v>
-      </c>
-      <c r="J49">
-        <v>0.39148650046550099</v>
-      </c>
-      <c r="K49">
-        <v>-3.7705596358746318E-2</v>
-      </c>
-      <c r="L49">
-        <v>6.1290989965863081E-2</v>
-      </c>
-      <c r="M49">
-        <v>-6.656667011482377E-2</v>
-      </c>
-      <c r="N49">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O49">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>0.54136400322840983</v>
-      </c>
-      <c r="C50">
-        <v>-4.0556900726392377E-2</v>
-      </c>
-      <c r="D50">
-        <v>-6.9410815173527332E-2</v>
-      </c>
-      <c r="E50">
-        <v>-4.9838579499596643E-2</v>
-      </c>
-      <c r="F50">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G50">
-        <v>5.6598062953994867E-2</v>
-      </c>
-      <c r="H50">
-        <v>-6.3660209846650537E-2</v>
-      </c>
-      <c r="I50">
-        <v>-6.7090395480226162E-2</v>
-      </c>
-      <c r="J50">
-        <v>6.5879741727199015E-2</v>
-      </c>
-      <c r="K50">
-        <v>-1.8765133171913199E-2</v>
-      </c>
-      <c r="L50">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M50">
-        <v>-6.880548829701387E-2</v>
-      </c>
-      <c r="N50">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O50">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>0.55171562218542092</v>
-      </c>
-      <c r="C51">
-        <v>-4.4379557802376707E-2</v>
-      </c>
-      <c r="D51">
-        <v>-7.0310003195909229E-2</v>
-      </c>
-      <c r="E51">
-        <v>-6.2886777651878265E-2</v>
-      </c>
-      <c r="F51">
-        <v>-6.3903657863389363E-2</v>
-      </c>
-      <c r="G51">
-        <v>-2.058456085301727E-2</v>
-      </c>
-      <c r="H51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I51">
-        <v>-6.6039106307562601E-2</v>
-      </c>
-      <c r="J51">
-        <v>9.1170574392050924E-2</v>
-      </c>
-      <c r="K51">
-        <v>4.0021499753043289E-2</v>
-      </c>
-      <c r="L51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="M51">
-        <v>-6.9089746942095909E-2</v>
-      </c>
-      <c r="N51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O51">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>0.48834026158369631</v>
-      </c>
-      <c r="C52">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="D52">
-        <v>-6.8893845685897376E-2</v>
-      </c>
-      <c r="E52">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="F52">
-        <v>-5.4496603467505053E-2</v>
-      </c>
-      <c r="G52">
-        <v>-2.286322619892547E-2</v>
-      </c>
-      <c r="H52">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="I52">
-        <v>-6.3621616141133971E-2</v>
-      </c>
-      <c r="J52">
-        <v>0.18457872858156721</v>
-      </c>
-      <c r="K52">
-        <v>3.056879245665579E-2</v>
-      </c>
-      <c r="L52">
-        <v>-6.9400790834432194E-2</v>
-      </c>
-      <c r="M52">
-        <v>-6.7068843151171356E-2</v>
-      </c>
-      <c r="N52">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-      <c r="O52">
-        <v>-7.1428571428571813E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0.45849123116242252</v>
-      </c>
-      <c r="C53">
-        <v>-2.3515760406567731E-2</v>
-      </c>
-      <c r="D53">
-        <v>-6.84468728885749E-2</v>
-      </c>
-      <c r="E53">
-        <v>-6.2483475808582961E-2</v>
-      </c>
-      <c r="F53">
-        <v>-6.5156722775475726E-2</v>
-      </c>
-      <c r="G53">
-        <v>-3.9966510972062337E-2</v>
-      </c>
-      <c r="H53">
-        <v>-7.1428571428570509E-2</v>
-      </c>
-      <c r="I53">
-        <v>-6.4745454011338396E-2</v>
-      </c>
-      <c r="J53">
-        <v>0.18972709379865549</v>
-      </c>
-      <c r="K53">
-        <v>2.347169589612624E-2</v>
-      </c>
-      <c r="L53">
-        <v>-7.0400399518227089E-2</v>
-      </c>
-      <c r="M53">
-        <v>-6.268911019065164E-2</v>
-      </c>
-      <c r="N53">
-        <v>-7.1428571428570509E-2</v>
-      </c>
-      <c r="O53">
-        <v>-7.1428571428570509E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>0.46633486509457017</v>
-      </c>
-      <c r="C54">
-        <v>-6.336161569599158E-2</v>
-      </c>
-      <c r="D54">
-        <v>-6.8201789135539648E-2</v>
-      </c>
-      <c r="E54">
-        <v>-4.2992552471225888E-2</v>
-      </c>
-      <c r="F54">
-        <v>-5.5899681643354453E-2</v>
-      </c>
-      <c r="G54">
-        <v>6.62138607585816E-2</v>
-      </c>
-      <c r="H54">
-        <v>-6.1042365922874438E-2</v>
-      </c>
-      <c r="I54">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-      <c r="J54">
-        <v>8.6986271769975962E-2</v>
-      </c>
-      <c r="K54">
-        <v>2.283236577881678E-3</v>
-      </c>
-      <c r="L54">
-        <v>-6.0336507296273843E-2</v>
-      </c>
-      <c r="M54">
-        <v>-6.890764776214045E-2</v>
-      </c>
-      <c r="N54">
-        <v>-5.8218931416471463E-2</v>
-      </c>
-      <c r="O54">
-        <v>-7.1428571428571938E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>0.23003739715781599</v>
-      </c>
-      <c r="C55">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D55">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="E55">
-        <v>-2.3470456245325479E-2</v>
-      </c>
-      <c r="F55">
-        <v>-5.6035901271503409E-2</v>
-      </c>
-      <c r="G55">
-        <v>-1.509349289453994E-2</v>
-      </c>
-      <c r="H55">
-        <v>-4.273747195213147E-2</v>
-      </c>
-      <c r="I55">
-        <v>-6.4098728496634172E-2</v>
-      </c>
-      <c r="J55">
-        <v>0.28647718773373232</v>
-      </c>
-      <c r="K55">
-        <v>-7.5542258788332192E-3</v>
-      </c>
-      <c r="L55">
-        <v>4.4801795063575338E-2</v>
-      </c>
-      <c r="M55">
-        <v>-6.6611817501869869E-2</v>
-      </c>
-      <c r="N55">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O55">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>0.48445497906002799</v>
-      </c>
-      <c r="C56">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D56">
-        <v>-6.8374825500232647E-2</v>
-      </c>
-      <c r="E56">
-        <v>-5.025593299208931E-2</v>
-      </c>
-      <c r="F56">
-        <v>-5.9213587715216363E-2</v>
-      </c>
-      <c r="G56">
-        <v>-5.2640763145648927E-3</v>
-      </c>
-      <c r="H56">
-        <v>-5.8501046998603902E-2</v>
-      </c>
-      <c r="I56">
-        <v>-6.6847952536063168E-2</v>
-      </c>
-      <c r="J56">
-        <v>0.16289553280595609</v>
-      </c>
-      <c r="K56">
-        <v>-2.8777919962773339E-2</v>
-      </c>
-      <c r="L56">
-        <v>-2.745463006049317E-2</v>
-      </c>
-      <c r="M56">
-        <v>-6.8374825500232647E-2</v>
-      </c>
-      <c r="N56">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O56">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>0.12797255976805719</v>
-      </c>
-      <c r="C57">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="D57">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="E57">
-        <v>-3.6050951377556671E-2</v>
-      </c>
-      <c r="F57">
-        <v>-6.6216194806634973E-2</v>
-      </c>
-      <c r="G57">
-        <v>-5.0689966571079742E-2</v>
-      </c>
-      <c r="H57">
-        <v>-6.7768817630190478E-2</v>
-      </c>
-      <c r="I57">
-        <v>-5.8896687209873219E-2</v>
-      </c>
-      <c r="J57">
-        <v>0.41653860168887352</v>
-      </c>
-      <c r="K57">
-        <v>8.6051743532058675E-2</v>
-      </c>
-      <c r="L57">
-        <v>-1.116937847557688E-3</v>
-      </c>
-      <c r="M57">
-        <v>-6.4109063831809435E-2</v>
-      </c>
-      <c r="N57">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-      <c r="O57">
-        <v>-7.1428571428571105E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>0.3929824044327862</v>
-      </c>
-      <c r="C58">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="D58">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="E58">
-        <v>-3.9243714816233809E-2</v>
-      </c>
-      <c r="F58">
-        <v>-6.5858115476436024E-2</v>
-      </c>
-      <c r="G58">
-        <v>-2.851542927878789E-2</v>
-      </c>
-      <c r="H58">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="I58">
-        <v>-6.4207610009136454E-2</v>
-      </c>
-      <c r="J58">
-        <v>0.2443337557841376</v>
-      </c>
-      <c r="K58">
-        <v>-7.2651713873088343E-3</v>
-      </c>
-      <c r="L58">
-        <v>-6.0272922868342682E-3</v>
-      </c>
-      <c r="M58">
-        <v>-6.9055969819328489E-2</v>
-      </c>
-      <c r="N58">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-      <c r="O58">
-        <v>-7.1428571428571216E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0.18672730814763769</v>
-      </c>
-      <c r="C59">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="D59">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E59">
-        <v>-3.3874810807570467E-2</v>
-      </c>
-      <c r="F59">
-        <v>-5.8945617479132517E-2</v>
-      </c>
-      <c r="G59">
-        <v>-1.6356715769282461E-2</v>
-      </c>
-      <c r="H59">
-        <v>-5.8945617479132517E-2</v>
-      </c>
-      <c r="I59">
-        <v>-5.705743957081387E-2</v>
-      </c>
-      <c r="J59">
-        <v>0.3506840898532918</v>
-      </c>
-      <c r="K59">
-        <v>2.2350931351246221E-2</v>
-      </c>
-      <c r="L59">
-        <v>1.353943444576013E-2</v>
-      </c>
-      <c r="M59">
-        <v>-6.7337519293881223E-2</v>
-      </c>
-      <c r="N59">
-        <v>-6.6498329112406399E-2</v>
-      </c>
-      <c r="O59">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>0.1613958560523451</v>
-      </c>
-      <c r="C60">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="D60">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="E60">
-        <v>-1.5485278080697461E-2</v>
-      </c>
-      <c r="F60">
-        <v>-5.5616139585604678E-2</v>
-      </c>
-      <c r="G60">
-        <v>-4.4056706652125972E-2</v>
-      </c>
-      <c r="H60">
-        <v>-6.6848418756815256E-2</v>
-      </c>
-      <c r="I60">
-        <v>-6.3249727371864198E-2</v>
-      </c>
-      <c r="J60">
-        <v>0.48844056706652178</v>
-      </c>
-      <c r="K60">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="L60">
-        <v>2.3991275899673301E-2</v>
-      </c>
-      <c r="M60">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="N60">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-      <c r="O60">
-        <v>-7.1428571428570869E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>0.2021683673469386</v>
-      </c>
-      <c r="C61">
-        <v>-5.8460884353741541E-2</v>
-      </c>
-      <c r="D61">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="E61">
-        <v>-4.7300170068027163E-2</v>
-      </c>
-      <c r="F61">
-        <v>-6.5582482993197314E-2</v>
-      </c>
-      <c r="G61">
-        <v>-5.9098639455782268E-2</v>
-      </c>
-      <c r="H61">
-        <v>-6.898384353741506E-2</v>
-      </c>
-      <c r="I61">
-        <v>-6.3988095238095358E-2</v>
-      </c>
-      <c r="J61">
-        <v>0.43261054421768708</v>
-      </c>
-      <c r="K61">
-        <v>2.0408163265306051E-2</v>
-      </c>
-      <c r="L61">
-        <v>-1.0735544217686979E-2</v>
-      </c>
-      <c r="M61">
-        <v>-6.67517006802721E-2</v>
-      </c>
-      <c r="N61">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-      <c r="O61">
-        <v>-7.1428571428571341E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>0.57651035986913879</v>
-      </c>
-      <c r="C62">
-        <v>-4.0487095601598883E-2</v>
-      </c>
-      <c r="D62">
-        <v>-7.0308978553252938E-2</v>
-      </c>
-      <c r="E62">
-        <v>-6.3489640130861086E-2</v>
-      </c>
-      <c r="F62">
-        <v>-5.9825517993456589E-2</v>
-      </c>
-      <c r="G62">
-        <v>-9.7491821155939844E-3</v>
-      </c>
-      <c r="H62">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="I62">
-        <v>-6.5932388222464264E-2</v>
-      </c>
-      <c r="J62">
-        <v>6.7604507451836118E-2</v>
-      </c>
-      <c r="K62">
-        <v>2.007270083605989E-2</v>
-      </c>
-      <c r="L62">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="M62">
-        <v>-6.8680479825517601E-2</v>
-      </c>
-      <c r="N62">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-      <c r="O62">
-        <v>-7.1428571428570981E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>0.1521091028967019</v>
-      </c>
-      <c r="C63">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D63">
-        <v>-6.8217976465192467E-2</v>
-      </c>
-      <c r="E63">
-        <v>-3.9422952887385593E-2</v>
-      </c>
-      <c r="F63">
-        <v>-5.8586191575054819E-2</v>
-      </c>
-      <c r="G63">
-        <v>-2.9791167997247951E-2</v>
-      </c>
-      <c r="H63">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I63">
-        <v>-6.310109074230677E-2</v>
-      </c>
-      <c r="J63">
-        <v>0.48500766816207758</v>
-      </c>
-      <c r="K63">
-        <v>-7.954822342301866E-4</v>
-      </c>
-      <c r="L63">
-        <v>-2.8888188163797901E-2</v>
-      </c>
-      <c r="M63">
-        <v>-6.2599435279278762E-2</v>
-      </c>
-      <c r="N63">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O63">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>0.1051087789635044</v>
-      </c>
-      <c r="C64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="D64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="E64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="F64">
-        <v>-5.9975826896999013E-2</v>
-      </c>
-      <c r="G64">
-        <v>-3.3768645716644001E-2</v>
-      </c>
-      <c r="H64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="I64">
-        <v>-5.7602735687754203E-2</v>
-      </c>
-      <c r="J64">
-        <v>0.53174930723424318</v>
-      </c>
-      <c r="K64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="L64">
-        <v>7.4361771121985554E-2</v>
-      </c>
-      <c r="M64">
-        <v>-5.9872649018336138E-2</v>
-      </c>
-      <c r="N64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-      <c r="O64">
-        <v>-7.1428571428571466E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>0.43707941778080778</v>
-      </c>
-      <c r="C65">
-        <v>-4.3310704651232143E-2</v>
-      </c>
-      <c r="D65">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="E65">
-        <v>-5.9704147274182932E-2</v>
-      </c>
-      <c r="F65">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="G65">
-        <v>-5.6383956363205402E-2</v>
-      </c>
-      <c r="H65">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="I65">
-        <v>-6.2505558355320026E-2</v>
-      </c>
-      <c r="J65">
-        <v>0.27013606853822641</v>
-      </c>
-      <c r="K65">
-        <v>1.1057421516022421E-2</v>
-      </c>
-      <c r="L65">
-        <v>-6.779711261969025E-2</v>
-      </c>
-      <c r="M65">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="N65">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-      <c r="O65">
-        <v>-7.1428571428571702E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>0.24459484574402179</v>
-      </c>
-      <c r="C66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E66">
-        <v>-5.8310618262916752E-2</v>
-      </c>
-      <c r="F66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G66">
-        <v>-5.1372196753810023E-2</v>
-      </c>
-      <c r="H66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="I66">
-        <v>-6.2863957378267943E-2</v>
-      </c>
-      <c r="J66">
-        <v>0.3757743774005699</v>
-      </c>
-      <c r="K66">
-        <v>9.6069260314706945E-2</v>
-      </c>
-      <c r="L66">
-        <v>-4.3891711064304409E-2</v>
-      </c>
-      <c r="M66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O66">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>0.20347139612847401</v>
-      </c>
-      <c r="C67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="D67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="E67">
-        <v>-5.7261814642586811E-2</v>
-      </c>
-      <c r="F67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="G67">
-        <v>-4.7853357845787967E-2</v>
-      </c>
-      <c r="H67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="I67">
-        <v>-5.8883962366173007E-2</v>
-      </c>
-      <c r="J67">
-        <v>0.41629717746296102</v>
-      </c>
-      <c r="K67">
-        <v>0.1156591326916836</v>
-      </c>
-      <c r="L67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="M67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="N67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-      <c r="O67">
-        <v>-7.1428571428571577E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>0.23628710293351779</v>
-      </c>
-      <c r="C68">
-        <v>-7.1428571428572174E-2</v>
-      </c>
-      <c r="D68">
-        <v>-6.7985882080658006E-2</v>
-      </c>
-      <c r="E68">
-        <v>-3.6090377827924243E-2</v>
-      </c>
-      <c r="F68">
-        <v>-6.3429381473124671E-2</v>
-      </c>
-      <c r="G68">
-        <v>-3.5786611120755103E-2</v>
-      </c>
-      <c r="H68">
-        <v>-6.2720592489730359E-2</v>
-      </c>
-      <c r="I68">
-        <v>-3.9735578313950769E-2</v>
-      </c>
-      <c r="J68">
-        <v>0.3270120928079609</v>
-      </c>
-      <c r="K68">
-        <v>6.1331944685523009E-3</v>
-      </c>
-      <c r="L68">
-        <v>1.9600185153039879E-2</v>
-      </c>
-      <c r="M68">
-        <v>-6.8998437771220972E-2</v>
-      </c>
-      <c r="N68">
-        <v>-7.1428571428572174E-2</v>
-      </c>
-      <c r="O68">
-        <v>-7.1428571428572174E-2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
